--- a/Code/Results/Cases/Case_5_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_15/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.54471985317582</v>
+        <v>3.90233215343369</v>
       </c>
       <c r="C2">
-        <v>0.3725344224343985</v>
+        <v>1.078227539620968</v>
       </c>
       <c r="D2">
-        <v>0.3429710293198411</v>
+        <v>0.03757545334941881</v>
       </c>
       <c r="E2">
-        <v>0.3139495504198067</v>
+        <v>0.1279755769589102</v>
       </c>
       <c r="F2">
-        <v>6.536597842516443</v>
+        <v>2.47451478656356</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,33 +448,39 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6238038599602831</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4379061865718796</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>1.252383077000275</v>
+      </c>
+      <c r="N2">
+        <v>1.024806871487428</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.17591664138763</v>
+        <v>3.354733989029683</v>
       </c>
       <c r="C3">
-        <v>0.3179256976997351</v>
+        <v>0.9257542027928309</v>
       </c>
       <c r="D3">
-        <v>0.3039075506719087</v>
+        <v>0.0363495860326708</v>
       </c>
       <c r="E3">
-        <v>0.2690608955041114</v>
+        <v>0.1107643116811659</v>
       </c>
       <c r="F3">
-        <v>5.721722183335089</v>
+        <v>2.181968208376759</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -483,33 +495,39 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5322915501952679</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3740564948176868</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>1.07578808942106</v>
+      </c>
+      <c r="N3">
+        <v>1.034906324952459</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.956033482536526</v>
+        <v>3.025185837995309</v>
       </c>
       <c r="C4">
-        <v>0.2853823836931895</v>
+        <v>0.8339497512868945</v>
       </c>
       <c r="D4">
-        <v>0.2805597173948939</v>
+        <v>0.03573912351823694</v>
       </c>
       <c r="E4">
-        <v>0.2422867230746277</v>
+        <v>0.1005344498912528</v>
       </c>
       <c r="F4">
-        <v>5.234643371682068</v>
+        <v>2.008684620698702</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -524,33 +542,39 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4777353793267523</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3359796775181536</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.9697736238233858</v>
+      </c>
+      <c r="N4">
+        <v>1.043353875258006</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.867828709570603</v>
+        <v>2.89231553053321</v>
       </c>
       <c r="C5">
-        <v>0.2723256838651196</v>
+        <v>0.7969198655493699</v>
       </c>
       <c r="D5">
-        <v>0.2711785537788387</v>
+        <v>0.03552219094252962</v>
       </c>
       <c r="E5">
-        <v>0.231542879445584</v>
+        <v>0.09643891203086241</v>
       </c>
       <c r="F5">
-        <v>5.038972774670668</v>
+        <v>1.939467536814718</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -565,33 +589,39 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.455849639865562</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3207010718848764</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.9270878304391914</v>
+      </c>
+      <c r="N5">
+        <v>1.047314746109834</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.853260125249165</v>
+        <v>2.870331474934517</v>
       </c>
       <c r="C6">
-        <v>0.2701688491591199</v>
+        <v>0.790792053423587</v>
       </c>
       <c r="D6">
-        <v>0.2696281374015399</v>
+        <v>0.03548798586426116</v>
       </c>
       <c r="E6">
-        <v>0.2297681078708251</v>
+        <v>0.0957629527596211</v>
       </c>
       <c r="F6">
-        <v>5.006638056855479</v>
+        <v>1.928053104757993</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -606,33 +636,39 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4522347173434156</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3181772222013777</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.9200285542406448</v>
+      </c>
+      <c r="N6">
+        <v>1.048002489690276</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.954838565814072</v>
+        <v>3.023388459792045</v>
       </c>
       <c r="C7">
-        <v>0.2852055196523224</v>
+        <v>0.8334489035999013</v>
       </c>
       <c r="D7">
-        <v>0.2804326935516173</v>
+        <v>0.03573607385296285</v>
       </c>
       <c r="E7">
-        <v>0.2421411908011279</v>
+        <v>0.1004789342309564</v>
       </c>
       <c r="F7">
-        <v>5.2319937183874</v>
+        <v>2.007745722978299</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -647,33 +683,39 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4774388974666621</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3357727172389318</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.9691959731900468</v>
+      </c>
+      <c r="N7">
+        <v>1.04340525176336</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.416033016213134</v>
+        <v>3.711971053050092</v>
       </c>
       <c r="C8">
-        <v>0.3534727697099527</v>
+        <v>1.025230217964292</v>
       </c>
       <c r="D8">
-        <v>0.3293523868866259</v>
+        <v>0.03712074357859052</v>
       </c>
       <c r="E8">
-        <v>0.2982884256203988</v>
+        <v>0.1219635037055085</v>
       </c>
       <c r="F8">
-        <v>6.252546597898345</v>
+        <v>2.372203309209254</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -688,33 +730,39 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5918702620246208</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4156276799552998</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1.190933588814289</v>
+      </c>
+      <c r="N8">
+        <v>1.027793371237578</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.385784049083668</v>
+        <v>5.128470555764579</v>
       </c>
       <c r="C9">
-        <v>0.4974696489878738</v>
+        <v>1.41959489284352</v>
       </c>
       <c r="D9">
-        <v>0.4317571641734474</v>
+        <v>0.04116950974366063</v>
       </c>
       <c r="E9">
-        <v>0.416292090184271</v>
+        <v>0.1673843838187707</v>
       </c>
       <c r="F9">
-        <v>8.386125909771891</v>
+        <v>3.147353427197999</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -729,33 +777,39 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8326255759149319</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5835720372279951</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.649642784025218</v>
+      </c>
+      <c r="N9">
+        <v>1.017390668682509</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.16042560715232</v>
+        <v>6.230932870393644</v>
       </c>
       <c r="C10">
-        <v>0.6133329127568743</v>
+        <v>1.726807759649887</v>
       </c>
       <c r="D10">
-        <v>0.513306273481561</v>
+        <v>0.04529575390327523</v>
       </c>
       <c r="E10">
-        <v>0.5105808535808194</v>
+        <v>0.2037550306300915</v>
       </c>
       <c r="F10">
-        <v>10.0794962809511</v>
+        <v>3.770144744405457</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -770,33 +824,39 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.025211000721754</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.7179370178377482</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>2.00888800627007</v>
+      </c>
+      <c r="N10">
+        <v>1.025946235021209</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.532748214135097</v>
+        <v>6.75171180349605</v>
       </c>
       <c r="C11">
-        <v>0.669362194295104</v>
+        <v>1.872095289547701</v>
       </c>
       <c r="D11">
-        <v>0.5524503270564196</v>
+        <v>0.04751791149000439</v>
       </c>
       <c r="E11">
-        <v>0.5559228918904395</v>
+        <v>0.2212263892226503</v>
       </c>
       <c r="F11">
-        <v>10.89003554128851</v>
+        <v>4.069520374038319</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -811,33 +871,39 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.117885160186546</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.7826181437420345</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>2.179243359810911</v>
+      </c>
+      <c r="N11">
+        <v>1.034418294437899</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.677289940936475</v>
+        <v>6.952278526321891</v>
       </c>
       <c r="C12">
-        <v>0.6911792754462169</v>
+        <v>1.928084747735795</v>
       </c>
       <c r="D12">
-        <v>0.5676391896056714</v>
+        <v>0.04841891687702571</v>
       </c>
       <c r="E12">
-        <v>0.5735305911227186</v>
+        <v>0.2280036357718345</v>
       </c>
       <c r="F12">
-        <v>11.20411177225367</v>
+        <v>4.185651721536402</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -852,33 +918,39 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.153884027717027</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.8077485932610813</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2.244963111945751</v>
+      </c>
+      <c r="N12">
+        <v>1.038393909636255</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.645989740469361</v>
+        <v>6.908922966637363</v>
       </c>
       <c r="C13">
-        <v>0.6864516281620467</v>
+        <v>1.915980013785884</v>
       </c>
       <c r="D13">
-        <v>0.5643504115568589</v>
+        <v>0.04822204275762942</v>
       </c>
       <c r="E13">
-        <v>0.5697174185613676</v>
+        <v>0.2265363599504298</v>
       </c>
       <c r="F13">
-        <v>11.13612723332579</v>
+        <v>4.160509688773686</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -893,33 +965,39 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.146087511706639</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.8023056489383507</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2.230751562605946</v>
+      </c>
+      <c r="N13">
+        <v>1.037501607319868</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.544564092092742</v>
+        <v>6.768141473258027</v>
       </c>
       <c r="C14">
-        <v>0.671144269200397</v>
+        <v>1.87668096401859</v>
       </c>
       <c r="D14">
-        <v>0.553692124500401</v>
+        <v>0.04759078100068592</v>
       </c>
       <c r="E14">
-        <v>0.557362156724146</v>
+        <v>0.2217805466010745</v>
       </c>
       <c r="F14">
-        <v>10.91572276340969</v>
+        <v>4.079016272334769</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -934,33 +1012,39 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.120827509162396</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.7846720485844401</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2.184624555715487</v>
+      </c>
+      <c r="N14">
+        <v>1.034729294919273</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.482923415180267</v>
+        <v>6.682365480407555</v>
       </c>
       <c r="C15">
-        <v>0.6618503298632561</v>
+        <v>1.852741562569179</v>
       </c>
       <c r="D15">
-        <v>0.5472136558709622</v>
+        <v>0.0472121941078214</v>
       </c>
       <c r="E15">
-        <v>0.5498540670734826</v>
+        <v>0.2188893919729935</v>
       </c>
       <c r="F15">
-        <v>10.78169431432781</v>
+        <v>4.029474076196379</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -975,33 +1059,39 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.105478845540688</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.7739581507688911</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2.156534978957907</v>
+      </c>
+      <c r="N15">
+        <v>1.03313468698282</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.136549692326184</v>
+        <v>6.197334380960854</v>
       </c>
       <c r="C16">
-        <v>0.6097479415482496</v>
+        <v>1.717438607285203</v>
       </c>
       <c r="D16">
-        <v>0.5107950714022991</v>
+        <v>0.0451582774537016</v>
       </c>
       <c r="E16">
-        <v>0.507673808211905</v>
+        <v>0.2026341535636433</v>
       </c>
       <c r="F16">
-        <v>10.02744453147415</v>
+        <v>3.75094012228783</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1016,33 +1106,39 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.019270683069351</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.7137916387157759</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.997911733506356</v>
+      </c>
+      <c r="N16">
+        <v>1.025493589800377</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.929607614574422</v>
+        <v>5.905104818727864</v>
       </c>
       <c r="C17">
-        <v>0.5787142807748467</v>
+        <v>1.635967994520513</v>
       </c>
       <c r="D17">
-        <v>0.4890239204870852</v>
+        <v>0.04399310957168012</v>
       </c>
       <c r="E17">
-        <v>0.4824799941934259</v>
+        <v>0.1929176839446711</v>
       </c>
       <c r="F17">
-        <v>9.575916153539112</v>
+        <v>3.58448185039498</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1057,33 +1153,39 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9677960961701757</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.67787343982436</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.902517092860805</v>
+      </c>
+      <c r="N17">
+        <v>1.022050562212826</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.81240758386366</v>
+        <v>5.738794511965693</v>
       </c>
       <c r="C18">
-        <v>0.5611685248368588</v>
+        <v>1.589616983809378</v>
       </c>
       <c r="D18">
-        <v>0.4766893271139452</v>
+        <v>0.04335472518592809</v>
       </c>
       <c r="E18">
-        <v>0.4682136637682532</v>
+        <v>0.1874142522064872</v>
       </c>
       <c r="F18">
-        <v>9.319898022725198</v>
+        <v>3.490220108683303</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1098,33 +1200,39 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.938653530371198</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.657540170385353</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.848286415597116</v>
+      </c>
+      <c r="N18">
+        <v>1.020493775703613</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.773021081972388</v>
+        <v>5.682772809212906</v>
       </c>
       <c r="C19">
-        <v>0.5552767604581845</v>
+        <v>1.574005835391233</v>
       </c>
       <c r="D19">
-        <v>0.4725433308444735</v>
+        <v>0.04314376816378029</v>
       </c>
       <c r="E19">
-        <v>0.4634195829255532</v>
+        <v>0.1855647496853194</v>
       </c>
       <c r="F19">
-        <v>9.233811458334941</v>
+        <v>3.458546439633466</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1139,33 +1247,39 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9288613328009632</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.6507082739564254</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.830028498462852</v>
+      </c>
+      <c r="N19">
+        <v>1.020036414534403</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.951443323004412</v>
+        <v>5.936025777740099</v>
       </c>
       <c r="C20">
-        <v>0.5819856087260575</v>
+        <v>1.644586851977635</v>
       </c>
       <c r="D20">
-        <v>0.4913216119653043</v>
+        <v>0.04411378803040833</v>
       </c>
       <c r="E20">
-        <v>0.4851381268324531</v>
+        <v>0.1939430115038761</v>
       </c>
       <c r="F20">
-        <v>9.6235913905507</v>
+        <v>3.602045339002331</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1180,33 +1294,39 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9732264498146748</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6816624410019614</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.912604583580944</v>
+      </c>
+      <c r="N20">
+        <v>1.022372515925682</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.574252642344163</v>
+        <v>6.809396021257044</v>
       </c>
       <c r="C21">
-        <v>0.6756230079575403</v>
+        <v>1.888196093070462</v>
       </c>
       <c r="D21">
-        <v>0.5568121424371952</v>
+        <v>0.04777449363152897</v>
       </c>
       <c r="E21">
-        <v>0.560978539521102</v>
+        <v>0.2231728187367992</v>
       </c>
       <c r="F21">
-        <v>10.98025470601334</v>
+        <v>4.102873810371079</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1221,33 +1341,39 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.128220805739844</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.7898330270444944</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>2.198138447493832</v>
+      </c>
+      <c r="N21">
+        <v>1.035521794762019</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.002435140901866</v>
+        <v>7.400128504246481</v>
       </c>
       <c r="C22">
-        <v>0.7403974209294688</v>
+        <v>2.053182782787871</v>
       </c>
       <c r="D22">
-        <v>0.6017922832343459</v>
+        <v>0.05052005737616838</v>
       </c>
       <c r="E22">
-        <v>0.6131507909757801</v>
+        <v>0.2432330348859182</v>
       </c>
       <c r="F22">
-        <v>11.90941340494805</v>
+        <v>4.446581015568711</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1262,33 +1388,39 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.234908778864948</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.8643236084028132</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2.391932477459434</v>
+      </c>
+      <c r="N22">
+        <v>1.048654809224359</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.77170183236251</v>
+        <v>7.082795645222063</v>
       </c>
       <c r="C23">
-        <v>0.7054503214377803</v>
+        <v>1.964530724170004</v>
       </c>
       <c r="D23">
-        <v>0.5775581404820116</v>
+        <v>0.04901857311492819</v>
       </c>
       <c r="E23">
-        <v>0.5850333054423587</v>
+        <v>0.2324282445045114</v>
       </c>
       <c r="F23">
-        <v>11.40908200604201</v>
+        <v>4.26146592160157</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1303,33 +1435,39 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.177404457737424</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.8241697498146152</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2.28776278101256</v>
+      </c>
+      <c r="N23">
+        <v>1.041188661937881</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.941565924003271</v>
+        <v>5.922041171381238</v>
       </c>
       <c r="C24">
-        <v>0.5805057284959787</v>
+        <v>1.640688760817454</v>
       </c>
       <c r="D24">
-        <v>0.4902822641520572</v>
+        <v>0.04405913194720057</v>
       </c>
       <c r="E24">
-        <v>0.4839357124433263</v>
+        <v>0.1934792053747927</v>
       </c>
       <c r="F24">
-        <v>9.602026389838244</v>
+        <v>3.594100442001746</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1344,33 +1482,39 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.970769995382085</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.6799484565616467</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.908042135277654</v>
+      </c>
+      <c r="N24">
+        <v>1.022225652144598</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.114381237495365</v>
+        <v>4.736162724735721</v>
       </c>
       <c r="C25">
-        <v>0.4570724715697452</v>
+        <v>1.310355782715419</v>
       </c>
       <c r="D25">
-        <v>0.4031414745660413</v>
+        <v>0.03989987161521924</v>
       </c>
       <c r="E25">
-        <v>0.3832668792380858</v>
+        <v>0.1546512257469814</v>
       </c>
       <c r="F25">
-        <v>7.790579996901926</v>
+        <v>2.929632318038244</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1385,12 +1529,18 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.765214802005417</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5365492904155573</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>1.522269992624132</v>
+      </c>
+      <c r="N25">
+        <v>1.017676184199615</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_15/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.90233215343369</v>
+        <v>2.599877348393477</v>
       </c>
       <c r="C2">
-        <v>1.078227539620968</v>
+        <v>0.451563831507201</v>
       </c>
       <c r="D2">
-        <v>0.03757545334941881</v>
+        <v>0.05585826025961893</v>
       </c>
       <c r="E2">
-        <v>0.1279755769589102</v>
+        <v>0.042046504066517</v>
       </c>
       <c r="F2">
-        <v>2.47451478656356</v>
+        <v>0.685288958967341</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.3442445198377087</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.06671578574804471</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2080610758113934</v>
       </c>
       <c r="M2">
-        <v>1.252383077000275</v>
+        <v>0.4604288824535843</v>
       </c>
       <c r="N2">
-        <v>1.024806871487428</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.75186959203694</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.354733989029683</v>
+        <v>2.262087948166595</v>
       </c>
       <c r="C3">
-        <v>0.9257542027928309</v>
+        <v>0.4027898009422586</v>
       </c>
       <c r="D3">
-        <v>0.0363495860326708</v>
+        <v>0.05302042441589805</v>
       </c>
       <c r="E3">
-        <v>0.1107643116811659</v>
+        <v>0.04330419530583396</v>
       </c>
       <c r="F3">
-        <v>2.181968208376759</v>
+        <v>0.6768439346856567</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.3596823997611729</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0683325317532244</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1894113287070667</v>
       </c>
       <c r="M3">
-        <v>1.07578808942106</v>
+        <v>0.4022683184942153</v>
       </c>
       <c r="N3">
-        <v>1.034906324952459</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.738706331346989</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.025185837995309</v>
+        <v>2.054941790346049</v>
       </c>
       <c r="C4">
-        <v>0.8339497512868945</v>
+        <v>0.3728245631135394</v>
       </c>
       <c r="D4">
-        <v>0.03573912351823694</v>
+        <v>0.05131292371109097</v>
       </c>
       <c r="E4">
-        <v>0.1005344498912528</v>
+        <v>0.04411684267860116</v>
       </c>
       <c r="F4">
-        <v>2.008684620698702</v>
+        <v>0.6732422785034657</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.3701706968075982</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0693804085896268</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1780957573962212</v>
       </c>
       <c r="M4">
-        <v>0.9697736238233858</v>
+        <v>0.3666529618048955</v>
       </c>
       <c r="N4">
-        <v>1.043353875258006</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.735206797073147</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.89231553053321</v>
+        <v>1.9705663158216</v>
       </c>
       <c r="C5">
-        <v>0.7969198655493699</v>
+        <v>0.3606054485326524</v>
       </c>
       <c r="D5">
-        <v>0.03552219094252962</v>
+        <v>0.05062555651624123</v>
       </c>
       <c r="E5">
-        <v>0.09643891203086241</v>
+        <v>0.04445808408561192</v>
       </c>
       <c r="F5">
-        <v>1.939467536814718</v>
+        <v>0.6721560155657613</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.3746895562568717</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.06982116754369194</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1735163332463046</v>
       </c>
       <c r="M5">
-        <v>0.9270878304391914</v>
+        <v>0.3521584717922011</v>
       </c>
       <c r="N5">
-        <v>1.047314746109834</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.734882259272808</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.870331474934517</v>
+        <v>1.956557400031556</v>
       </c>
       <c r="C6">
-        <v>0.790792053423587</v>
+        <v>0.3585758890008606</v>
       </c>
       <c r="D6">
-        <v>0.03548798586426116</v>
+        <v>0.05051192090741807</v>
       </c>
       <c r="E6">
-        <v>0.0957629527596211</v>
+        <v>0.04451535345604896</v>
       </c>
       <c r="F6">
-        <v>1.928053104757993</v>
+        <v>0.6719982052012554</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.3754544384392347</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.06989518127430827</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1727577771112792</v>
       </c>
       <c r="M6">
-        <v>0.9200285542406448</v>
+        <v>0.3497526851118948</v>
       </c>
       <c r="N6">
-        <v>1.048002489690276</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.734893461404383</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.023388459792045</v>
+        <v>2.053803752128886</v>
       </c>
       <c r="C7">
-        <v>0.8334489035999013</v>
+        <v>0.3726598089354525</v>
       </c>
       <c r="D7">
-        <v>0.03573607385296285</v>
+        <v>0.05130361983600551</v>
       </c>
       <c r="E7">
-        <v>0.1004789342309564</v>
+        <v>0.0441214040691662</v>
       </c>
       <c r="F7">
-        <v>2.007745722978299</v>
+        <v>0.6732261059230638</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.3702306601825285</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.06938629735862456</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1780338720137706</v>
       </c>
       <c r="M7">
-        <v>0.9691959731900468</v>
+        <v>0.366457413196315</v>
       </c>
       <c r="N7">
-        <v>1.04340525176336</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.735198025473025</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.711971053050092</v>
+        <v>2.483337395167496</v>
       </c>
       <c r="C8">
-        <v>1.025230217964292</v>
+        <v>0.434748000751398</v>
       </c>
       <c r="D8">
-        <v>0.03712074357859052</v>
+        <v>0.0548723145452783</v>
       </c>
       <c r="E8">
-        <v>0.1219635037055085</v>
+        <v>0.04247171632273394</v>
       </c>
       <c r="F8">
-        <v>2.372203309209254</v>
+        <v>0.6820380829370194</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.3493524452709238</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.06726170091325123</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.201601101901943</v>
       </c>
       <c r="M8">
-        <v>1.190933588814289</v>
+        <v>0.4403522133484898</v>
       </c>
       <c r="N8">
-        <v>1.027793371237578</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.746348379581548</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.128470555764579</v>
+        <v>3.329026048887556</v>
       </c>
       <c r="C9">
-        <v>1.41959489284352</v>
+        <v>0.5565408483984697</v>
       </c>
       <c r="D9">
-        <v>0.04116950974366063</v>
+        <v>0.06216420448017601</v>
       </c>
       <c r="E9">
-        <v>0.1673843838187707</v>
+        <v>0.03956119305939021</v>
       </c>
       <c r="F9">
-        <v>3.147353427197999</v>
+        <v>0.7126830680512839</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.3168466258995117</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.06353974279953967</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2490036829273805</v>
       </c>
       <c r="M9">
-        <v>1.649642784025218</v>
+        <v>0.5862633160300774</v>
       </c>
       <c r="N9">
-        <v>1.017390668682509</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.806998574847654</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.230932870393644</v>
+        <v>3.954453209955318</v>
       </c>
       <c r="C10">
-        <v>1.726807759649887</v>
+        <v>0.6463225425529799</v>
       </c>
       <c r="D10">
-        <v>0.04529575390327523</v>
+        <v>0.06772561336138239</v>
       </c>
       <c r="E10">
-        <v>0.2037550306300915</v>
+        <v>0.03762603622993854</v>
       </c>
       <c r="F10">
-        <v>3.770144744405457</v>
+        <v>0.7445249469851163</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.2987345333941462</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.06108559441831218</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2847245171736716</v>
       </c>
       <c r="M10">
-        <v>2.00888800627007</v>
+        <v>0.6944532025846186</v>
       </c>
       <c r="N10">
-        <v>1.025946235021209</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.878777533714839</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.75171180349605</v>
+        <v>4.240362295264049</v>
       </c>
       <c r="C11">
-        <v>1.872095289547701</v>
+        <v>0.6872995147033407</v>
       </c>
       <c r="D11">
-        <v>0.04751791149000439</v>
+        <v>0.07030598657509302</v>
       </c>
       <c r="E11">
-        <v>0.2212263892226503</v>
+        <v>0.03679105051017473</v>
       </c>
       <c r="F11">
-        <v>4.069520374038319</v>
+        <v>0.7613166137486687</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.2918967106000387</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.06003228584992115</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3012099651582645</v>
       </c>
       <c r="M11">
-        <v>2.179243359810911</v>
+        <v>0.7439776920279968</v>
       </c>
       <c r="N11">
-        <v>1.034418294437899</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.918194181838544</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.952278526321891</v>
+        <v>4.348873425976706</v>
       </c>
       <c r="C12">
-        <v>1.928084747735795</v>
+        <v>0.7028417892393009</v>
       </c>
       <c r="D12">
-        <v>0.04841891687702571</v>
+        <v>0.07129089531152033</v>
       </c>
       <c r="E12">
-        <v>0.2280036357718345</v>
+        <v>0.03648149385235255</v>
       </c>
       <c r="F12">
-        <v>4.185651721536402</v>
+        <v>0.7680320606234758</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.2895223711206008</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.05964270693939966</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3074901086514643</v>
       </c>
       <c r="M12">
-        <v>2.244963111945751</v>
+        <v>0.7627837094420329</v>
       </c>
       <c r="N12">
-        <v>1.038393909636255</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.934169551735778</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.908922966637363</v>
+        <v>4.325492068631206</v>
       </c>
       <c r="C13">
-        <v>1.915980013785884</v>
+        <v>0.6994932647126291</v>
       </c>
       <c r="D13">
-        <v>0.04822204275762942</v>
+        <v>0.07107842295878442</v>
       </c>
       <c r="E13">
-        <v>0.2265363599504298</v>
+        <v>0.03654786543485677</v>
       </c>
       <c r="F13">
-        <v>4.160509688773686</v>
+        <v>0.7665694805107819</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.2900239408580703</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.05972619317000394</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.3061358419014795</v>
       </c>
       <c r="M13">
-        <v>2.230751562605946</v>
+        <v>0.7587310456556153</v>
       </c>
       <c r="N13">
-        <v>1.037501607319868</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.930681031172412</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.768141473258027</v>
+        <v>4.249284435047173</v>
       </c>
       <c r="C14">
-        <v>1.87668096401859</v>
+        <v>0.6885776473080227</v>
       </c>
       <c r="D14">
-        <v>0.04759078100068592</v>
+        <v>0.07038685660965172</v>
       </c>
       <c r="E14">
-        <v>0.2217805466010745</v>
+        <v>0.0367654494473646</v>
       </c>
       <c r="F14">
-        <v>4.079016272334769</v>
+        <v>0.7618617963307344</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.2916969828591505</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.06000004757576605</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.3017258642777421</v>
       </c>
       <c r="M14">
-        <v>2.184624555715487</v>
+        <v>0.7455237818364324</v>
       </c>
       <c r="N14">
-        <v>1.034729294919273</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.919487000714383</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.682365480407555</v>
+        <v>4.202638093904397</v>
       </c>
       <c r="C15">
-        <v>1.852741562569179</v>
+        <v>0.681894976562603</v>
       </c>
       <c r="D15">
-        <v>0.0472121941078214</v>
+        <v>0.06996428125564336</v>
       </c>
       <c r="E15">
-        <v>0.2188893919729935</v>
+        <v>0.03689959348090666</v>
       </c>
       <c r="F15">
-        <v>4.029474076196379</v>
+        <v>0.7590254469447046</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.2927501842495168</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.0601690072209351</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2990296141329623</v>
       </c>
       <c r="M15">
-        <v>2.156534978957907</v>
+        <v>0.7374409880363544</v>
       </c>
       <c r="N15">
-        <v>1.03313468698282</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.912769328298083</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.197334380960854</v>
+        <v>3.935800078514148</v>
       </c>
       <c r="C16">
-        <v>1.717438607285203</v>
+        <v>0.6436477986788702</v>
       </c>
       <c r="D16">
-        <v>0.0451582774537016</v>
+        <v>0.06755803894962042</v>
       </c>
       <c r="E16">
-        <v>0.2026341535636433</v>
+        <v>0.0376815264100876</v>
       </c>
       <c r="F16">
-        <v>3.75094012228783</v>
+        <v>0.743476093824043</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.2992107318381656</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.06115571813922394</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.283652197552442</v>
       </c>
       <c r="M16">
-        <v>1.997911733506356</v>
+        <v>0.6912235208436712</v>
       </c>
       <c r="N16">
-        <v>1.025493589800377</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.87634408494543</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.905104818727864</v>
+        <v>3.772491047974881</v>
       </c>
       <c r="C17">
-        <v>1.635967994520513</v>
+        <v>0.620222900480627</v>
       </c>
       <c r="D17">
-        <v>0.04399310957168012</v>
+        <v>0.06609516982035046</v>
       </c>
       <c r="E17">
-        <v>0.1929176839446711</v>
+        <v>0.03817290710590182</v>
       </c>
       <c r="F17">
-        <v>3.58448185039498</v>
+        <v>0.7345451676213273</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.3035423029892428</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.0617773406851736</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.274281500094105</v>
       </c>
       <c r="M17">
-        <v>1.902517092860805</v>
+        <v>0.6629549582433327</v>
       </c>
       <c r="N17">
-        <v>1.022050562212826</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.855783506064682</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.738794511965693</v>
+        <v>3.678688973597559</v>
       </c>
       <c r="C18">
-        <v>1.589616983809378</v>
+        <v>0.6067618343385561</v>
       </c>
       <c r="D18">
-        <v>0.04335472518592809</v>
+        <v>0.06525848225125941</v>
       </c>
       <c r="E18">
-        <v>0.1874142522064872</v>
+        <v>0.03845979534367894</v>
       </c>
       <c r="F18">
-        <v>3.490220108683303</v>
+        <v>0.7296238405789595</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.3061647595747026</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.06214080679810152</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2689136955090845</v>
       </c>
       <c r="M18">
-        <v>1.848286415597116</v>
+        <v>0.6467241495970413</v>
       </c>
       <c r="N18">
-        <v>1.020493775703613</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.844589373066697</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.682772809212906</v>
+        <v>3.646950115451432</v>
       </c>
       <c r="C19">
-        <v>1.574005835391233</v>
+        <v>0.6022060950645596</v>
       </c>
       <c r="D19">
-        <v>0.04314376816378029</v>
+        <v>0.06497598896613255</v>
       </c>
       <c r="E19">
-        <v>0.1855647496853194</v>
+        <v>0.03855765882223805</v>
       </c>
       <c r="F19">
-        <v>3.458546439633466</v>
+        <v>0.727993840676767</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.3070747914720684</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.06226488159494181</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2670999192136634</v>
       </c>
       <c r="M19">
-        <v>1.830028498462852</v>
+        <v>0.6412333466549498</v>
       </c>
       <c r="N19">
-        <v>1.020036414534403</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.840905497692717</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.936025777740099</v>
+        <v>3.789861929886399</v>
       </c>
       <c r="C20">
-        <v>1.644586851977635</v>
+        <v>0.6227152057961973</v>
       </c>
       <c r="D20">
-        <v>0.04411378803040833</v>
+        <v>0.06625040299235962</v>
       </c>
       <c r="E20">
-        <v>0.1939430115038761</v>
+        <v>0.03812015717234685</v>
       </c>
       <c r="F20">
-        <v>3.602045339002331</v>
+        <v>0.7354733997141949</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.3030675419795372</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.06171055316503704</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.275276727901101</v>
       </c>
       <c r="M20">
-        <v>1.912604583580944</v>
+        <v>0.6659611884515755</v>
       </c>
       <c r="N20">
-        <v>1.022372515925682</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.85790629275445</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.809396021257044</v>
+        <v>4.271661499431389</v>
       </c>
       <c r="C21">
-        <v>1.888196093070462</v>
+        <v>0.6917830966179395</v>
       </c>
       <c r="D21">
-        <v>0.04777449363152897</v>
+        <v>0.07058977097917563</v>
       </c>
       <c r="E21">
-        <v>0.2231728187367992</v>
+        <v>0.03670135873687386</v>
       </c>
       <c r="F21">
-        <v>4.102873810371079</v>
+        <v>0.7632346644692944</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.2911996228370057</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.05991935610184917</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3030201352989366</v>
       </c>
       <c r="M21">
-        <v>2.198138447493832</v>
+        <v>0.7494015940905356</v>
       </c>
       <c r="N21">
-        <v>1.035521794762019</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.922745848022117</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.400128504246481</v>
+        <v>4.587987208635582</v>
       </c>
       <c r="C22">
-        <v>2.053182782787871</v>
+        <v>0.737072797827949</v>
       </c>
       <c r="D22">
-        <v>0.05052005737616838</v>
+        <v>0.07347140289054011</v>
       </c>
       <c r="E22">
-        <v>0.2432330348859182</v>
+        <v>0.03581282036139699</v>
       </c>
       <c r="F22">
-        <v>4.446581015568711</v>
+        <v>0.7834709904458634</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.2847033681547195</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.05880294204917114</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3213722564925661</v>
       </c>
       <c r="M22">
-        <v>2.391932477459434</v>
+        <v>0.8042428843045428</v>
       </c>
       <c r="N22">
-        <v>1.048654809224359</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.971277061735066</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.082795645222063</v>
+        <v>4.419011395605253</v>
       </c>
       <c r="C23">
-        <v>1.964530724170004</v>
+        <v>0.712885077092011</v>
       </c>
       <c r="D23">
-        <v>0.04901857311492819</v>
+        <v>0.07192906603309979</v>
       </c>
       <c r="E23">
-        <v>0.2324282445045114</v>
+        <v>0.03628346626274226</v>
       </c>
       <c r="F23">
-        <v>4.26146592160157</v>
+        <v>0.7724702172400129</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.2880505357051746</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.05939375622484278</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.311555992872826</v>
       </c>
       <c r="M23">
-        <v>2.28776278101256</v>
+        <v>0.7749421089623851</v>
       </c>
       <c r="N23">
-        <v>1.041188661937881</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.944785114444358</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.922041171381238</v>
+        <v>3.782008288024372</v>
       </c>
       <c r="C24">
-        <v>1.640688760817454</v>
+        <v>0.6215884156218294</v>
       </c>
       <c r="D24">
-        <v>0.04405913194720057</v>
+        <v>0.066180208610497</v>
       </c>
       <c r="E24">
-        <v>0.1934792053747927</v>
+        <v>0.03814399176173566</v>
       </c>
       <c r="F24">
-        <v>3.594100442001746</v>
+        <v>0.735053083850211</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.3032817707321698</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.06174072885912274</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2748267248296941</v>
       </c>
       <c r="M24">
-        <v>1.908042135277654</v>
+        <v>0.6646020064356861</v>
       </c>
       <c r="N24">
-        <v>1.022225652144598</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.85694463545741</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.736162724735721</v>
+        <v>3.099681914500479</v>
       </c>
       <c r="C25">
-        <v>1.310355782715419</v>
+        <v>0.5235612612086697</v>
       </c>
       <c r="D25">
-        <v>0.03989987161521924</v>
+        <v>0.06015763759480564</v>
       </c>
       <c r="E25">
-        <v>0.1546512257469814</v>
+        <v>0.04031328676064927</v>
       </c>
       <c r="F25">
-        <v>2.929632318038244</v>
+        <v>0.7028447984368142</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.324674838037101</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.06449812076204076</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2360360412325377</v>
       </c>
       <c r="M25">
-        <v>1.522269992624132</v>
+        <v>0.5466457784821515</v>
       </c>
       <c r="N25">
-        <v>1.017676184199615</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.786083931397513</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_15/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.599877348393477</v>
+        <v>1.255269829919371</v>
       </c>
       <c r="C2">
-        <v>0.451563831507201</v>
+        <v>0.1762097630474386</v>
       </c>
       <c r="D2">
-        <v>0.05585826025961893</v>
+        <v>0.1273133655189014</v>
       </c>
       <c r="E2">
-        <v>0.042046504066517</v>
+        <v>0.1219173530156605</v>
       </c>
       <c r="F2">
-        <v>0.685288958967341</v>
+        <v>1.582352370776682</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.3442445198377087</v>
+        <v>0.9683392973090825</v>
       </c>
       <c r="J2">
-        <v>0.06671578574804471</v>
+        <v>0.1535881532749244</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2080610758113934</v>
+        <v>0.3136387744265221</v>
       </c>
       <c r="M2">
-        <v>0.4604288824535843</v>
+        <v>0.3075114984643221</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.75186959203694</v>
+        <v>4.051546183316731</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.262087948166595</v>
+        <v>1.151776496250079</v>
       </c>
       <c r="C3">
-        <v>0.4027898009422586</v>
+        <v>0.1600266875665852</v>
       </c>
       <c r="D3">
-        <v>0.05302042441589805</v>
+        <v>0.1269731100004137</v>
       </c>
       <c r="E3">
-        <v>0.04330419530583396</v>
+        <v>0.1227890251941952</v>
       </c>
       <c r="F3">
-        <v>0.6768439346856567</v>
+        <v>1.594128176722563</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.3596823997611729</v>
+        <v>0.9813925671496371</v>
       </c>
       <c r="J3">
-        <v>0.0683325317532244</v>
+        <v>0.1545577064332466</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1894113287070667</v>
+        <v>0.3096592936175568</v>
       </c>
       <c r="M3">
-        <v>0.4022683184942153</v>
+        <v>0.2905356750175656</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.738706331346989</v>
+        <v>4.086702161348327</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.054941790346049</v>
+        <v>1.088267293464526</v>
       </c>
       <c r="C4">
-        <v>0.3728245631135394</v>
+        <v>0.1500344830694473</v>
       </c>
       <c r="D4">
-        <v>0.05131292371109097</v>
+        <v>0.1267937272371427</v>
       </c>
       <c r="E4">
-        <v>0.04411684267860116</v>
+        <v>0.1233555329943212</v>
       </c>
       <c r="F4">
-        <v>0.6732422785034657</v>
+        <v>1.602255175343331</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.3701706968075982</v>
+        <v>0.9899683364320921</v>
       </c>
       <c r="J4">
-        <v>0.0693804085896268</v>
+        <v>0.1551909129100846</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1780957573962212</v>
+        <v>0.307311879447667</v>
       </c>
       <c r="M4">
-        <v>0.3666529618048955</v>
+        <v>0.2801605470758588</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.735206797073147</v>
+        <v>4.110764405732596</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.9705663158216</v>
+        <v>1.062397676821718</v>
       </c>
       <c r="C5">
-        <v>0.3606054485326524</v>
+        <v>0.1459488057901694</v>
       </c>
       <c r="D5">
-        <v>0.05062555651624123</v>
+        <v>0.1267280878345645</v>
       </c>
       <c r="E5">
-        <v>0.04445808408561192</v>
+        <v>0.1235942730177677</v>
       </c>
       <c r="F5">
-        <v>0.6721560155657613</v>
+        <v>1.605792459628823</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.3746895562568717</v>
+        <v>0.993604038086449</v>
       </c>
       <c r="J5">
-        <v>0.06982116754369194</v>
+        <v>0.1554584992766248</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1735163332463046</v>
+        <v>0.3063795564471761</v>
       </c>
       <c r="M5">
-        <v>0.3521584717922011</v>
+        <v>0.2759450119319098</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.734882259272808</v>
+        <v>4.121192419656083</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.956557400031556</v>
+        <v>1.058102758662926</v>
       </c>
       <c r="C6">
-        <v>0.3585758890008606</v>
+        <v>0.1452695574827203</v>
       </c>
       <c r="D6">
-        <v>0.05051192090741807</v>
+        <v>0.1267176400486321</v>
       </c>
       <c r="E6">
-        <v>0.04451535345604896</v>
+        <v>0.1236343921564678</v>
       </c>
       <c r="F6">
-        <v>0.6719982052012554</v>
+        <v>1.606393440824036</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.3754544384392347</v>
+        <v>0.9942162581111873</v>
       </c>
       <c r="J6">
-        <v>0.06989518127430827</v>
+        <v>0.1555035091536894</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1727577771112792</v>
+        <v>0.3062262143442069</v>
       </c>
       <c r="M6">
-        <v>0.3497526851118948</v>
+        <v>0.2752457847349135</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.734893461404383</v>
+        <v>4.122961571078477</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.053803752128886</v>
+        <v>1.087918360221806</v>
       </c>
       <c r="C7">
-        <v>0.3726598089354525</v>
+        <v>0.1499794376406953</v>
       </c>
       <c r="D7">
-        <v>0.05130361983600551</v>
+        <v>0.1267928117479755</v>
       </c>
       <c r="E7">
-        <v>0.0441214040691662</v>
+        <v>0.1233587207878397</v>
       </c>
       <c r="F7">
-        <v>0.6732261059230638</v>
+        <v>1.602301967483548</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.3702306601825285</v>
+        <v>0.9900167979344694</v>
       </c>
       <c r="J7">
-        <v>0.06938629735862456</v>
+        <v>0.1551944829810772</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1780338720137706</v>
+        <v>0.3072992073874588</v>
       </c>
       <c r="M7">
-        <v>0.366457413196315</v>
+        <v>0.2801036442068821</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.735198025473025</v>
+        <v>4.1109025216075</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.483337395167496</v>
+        <v>1.219578884434895</v>
       </c>
       <c r="C8">
-        <v>0.434748000751398</v>
+        <v>0.1706415448983876</v>
       </c>
       <c r="D8">
-        <v>0.0548723145452783</v>
+        <v>0.1271899351616241</v>
       </c>
       <c r="E8">
-        <v>0.04247171632273394</v>
+        <v>0.122211417934631</v>
       </c>
       <c r="F8">
-        <v>0.6820380829370194</v>
+        <v>1.586226581612159</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.3493524452709238</v>
+        <v>0.9727235898947804</v>
       </c>
       <c r="J8">
-        <v>0.06726170091325123</v>
+        <v>0.1539146017823541</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.201601101901943</v>
+        <v>0.3122467980090917</v>
       </c>
       <c r="M8">
-        <v>0.4403522133484898</v>
+        <v>0.3016484377177022</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.746348379581548</v>
+        <v>4.06315385639715</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.329026048887556</v>
+        <v>1.477984808978306</v>
       </c>
       <c r="C9">
-        <v>0.5565408483984697</v>
+        <v>0.2107090024373974</v>
       </c>
       <c r="D9">
-        <v>0.06216420448017601</v>
+        <v>0.1282016814555931</v>
       </c>
       <c r="E9">
-        <v>0.03956119305939021</v>
+        <v>0.1202092679808198</v>
       </c>
       <c r="F9">
-        <v>0.7126830680512839</v>
+        <v>1.561817346997117</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.3168466258995117</v>
+        <v>0.943265610404989</v>
       </c>
       <c r="J9">
-        <v>0.06353974279953967</v>
+        <v>0.1517045478677037</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2490036829273805</v>
+        <v>0.3227059155219223</v>
       </c>
       <c r="M9">
-        <v>0.5862633160300774</v>
+        <v>0.3442675539320419</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.806998574847654</v>
+        <v>3.989179689005738</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.954453209955318</v>
+        <v>1.667899729087026</v>
       </c>
       <c r="C10">
-        <v>0.6463225425529799</v>
+        <v>0.2398628693825344</v>
       </c>
       <c r="D10">
-        <v>0.06772561336138239</v>
+        <v>0.129085382618328</v>
       </c>
       <c r="E10">
-        <v>0.03762603622993854</v>
+        <v>0.1188884091111198</v>
       </c>
       <c r="F10">
-        <v>0.7445249469851163</v>
+        <v>1.548222672724989</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.2987345333941462</v>
+        <v>0.924341245825989</v>
       </c>
       <c r="J10">
-        <v>0.06108559441831218</v>
+        <v>0.1502623289237306</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2847245171736716</v>
+        <v>0.3308462316967962</v>
       </c>
       <c r="M10">
-        <v>0.6944532025846186</v>
+        <v>0.3757927740185778</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.878777533714839</v>
+        <v>3.94683564734774</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.240362295264049</v>
+        <v>1.754297375352394</v>
       </c>
       <c r="C11">
-        <v>0.6872995147033407</v>
+        <v>0.253062443140692</v>
       </c>
       <c r="D11">
-        <v>0.07030598657509302</v>
+        <v>0.1295175412505074</v>
       </c>
       <c r="E11">
-        <v>0.03679105051017473</v>
+        <v>0.1183199238025776</v>
       </c>
       <c r="F11">
-        <v>0.7613166137486687</v>
+        <v>1.54298065069338</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.2918967106000387</v>
+        <v>0.9163230144484018</v>
       </c>
       <c r="J11">
-        <v>0.06003228584992115</v>
+        <v>0.1496453755646154</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3012099651582645</v>
+        <v>0.3346474127728385</v>
       </c>
       <c r="M11">
-        <v>0.7439776920279968</v>
+        <v>0.3901782338862034</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.918194181838544</v>
+        <v>3.930183228263871</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.348873425976706</v>
+        <v>1.787013009736484</v>
       </c>
       <c r="C12">
-        <v>0.7028417892393009</v>
+        <v>0.2580515661375102</v>
       </c>
       <c r="D12">
-        <v>0.07129089531152033</v>
+        <v>0.1296854940011229</v>
       </c>
       <c r="E12">
-        <v>0.03648149385235255</v>
+        <v>0.1181092955184613</v>
       </c>
       <c r="F12">
-        <v>0.7680320606234758</v>
+        <v>1.541131153565296</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>0.2895223711206008</v>
+        <v>0.9133717140742164</v>
       </c>
       <c r="J12">
-        <v>0.05964270693939966</v>
+        <v>0.1494173569158797</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3074901086514643</v>
+        <v>0.3361008179275728</v>
       </c>
       <c r="M12">
-        <v>0.7627837094420329</v>
+        <v>0.3956317567994887</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.934169551735778</v>
+        <v>3.924253051532332</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.325492068631206</v>
+        <v>1.779967199694397</v>
       </c>
       <c r="C13">
-        <v>0.6994932647126291</v>
+        <v>0.2569774855626861</v>
       </c>
       <c r="D13">
-        <v>0.07107842295878442</v>
+        <v>0.1296491314901473</v>
       </c>
       <c r="E13">
-        <v>0.03654786543485677</v>
+        <v>0.1181544516924378</v>
       </c>
       <c r="F13">
-        <v>0.7665694805107819</v>
+        <v>1.541523446828116</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>0.2900239408580703</v>
+        <v>0.9140035459651727</v>
       </c>
       <c r="J13">
-        <v>0.05972619317000394</v>
+        <v>0.1494662156557229</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3061358419014795</v>
+        <v>0.3357871813700513</v>
       </c>
       <c r="M13">
-        <v>0.7587310456556153</v>
+        <v>0.3944569787830901</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.930681031172412</v>
+        <v>3.925513503966499</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.249284435047173</v>
+        <v>1.756988946819206</v>
       </c>
       <c r="C14">
-        <v>0.6885776473080227</v>
+        <v>0.2534730885275849</v>
       </c>
       <c r="D14">
-        <v>0.07038685660965172</v>
+        <v>0.1295312727623568</v>
       </c>
       <c r="E14">
-        <v>0.0367654494473646</v>
+        <v>0.1183025022641555</v>
       </c>
       <c r="F14">
-        <v>0.7618617963307344</v>
+        <v>1.54282577470795</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.2916969828591505</v>
+        <v>0.9160785044452986</v>
       </c>
       <c r="J14">
-        <v>0.06000004757576605</v>
+        <v>0.1496265040338933</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3017258642777421</v>
+        <v>0.3347667058315409</v>
       </c>
       <c r="M14">
-        <v>0.7455237818364324</v>
+        <v>0.390626778926368</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.919487000714383</v>
+        <v>3.929687816502707</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.202638093904397</v>
+        <v>1.74291388036886</v>
       </c>
       <c r="C15">
-        <v>0.681894976562603</v>
+        <v>0.2513253294292781</v>
       </c>
       <c r="D15">
-        <v>0.06996428125564336</v>
+        <v>0.1294596403706478</v>
       </c>
       <c r="E15">
-        <v>0.03689959348090666</v>
+        <v>0.1183937920613474</v>
       </c>
       <c r="F15">
-        <v>0.7590254469447046</v>
+        <v>1.543641141182775</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.2927501842495168</v>
+        <v>0.9173605530378381</v>
       </c>
       <c r="J15">
-        <v>0.0601690072209351</v>
+        <v>0.1497254151431182</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2990296141329623</v>
+        <v>0.3341434519742847</v>
       </c>
       <c r="M15">
-        <v>0.7374409880363544</v>
+        <v>0.3882814504083569</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.912769328298083</v>
+        <v>3.932293646929679</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.935800078514148</v>
+        <v>1.662253364477863</v>
       </c>
       <c r="C16">
-        <v>0.6436477986788702</v>
+        <v>0.2389989631051037</v>
       </c>
       <c r="D16">
-        <v>0.06755803894962042</v>
+        <v>0.1290577440683833</v>
       </c>
       <c r="E16">
-        <v>0.0376815264100876</v>
+        <v>0.1189262115518979</v>
       </c>
       <c r="F16">
-        <v>0.743476093824043</v>
+        <v>1.548584215939428</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.2992107318381656</v>
+        <v>0.9248771488939944</v>
       </c>
       <c r="J16">
-        <v>0.06115571813922394</v>
+        <v>0.1503034339891105</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.283652197552442</v>
+        <v>0.3305997788699244</v>
       </c>
       <c r="M16">
-        <v>0.6912235208436712</v>
+        <v>0.3748535167683471</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.87634408494543</v>
+        <v>3.947976478545286</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.772491047974881</v>
+        <v>1.612770512264206</v>
       </c>
       <c r="C17">
-        <v>0.620222900480627</v>
+        <v>0.2314209021710667</v>
       </c>
       <c r="D17">
-        <v>0.06609516982035046</v>
+        <v>0.1288188944185222</v>
       </c>
       <c r="E17">
-        <v>0.03817290710590182</v>
+        <v>0.1192611187981054</v>
       </c>
       <c r="F17">
-        <v>0.7345451676213273</v>
+        <v>1.551858001861191</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.3035423029892428</v>
+        <v>0.9296396700124703</v>
       </c>
       <c r="J17">
-        <v>0.0617773406851736</v>
+        <v>0.1506680369693161</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.274281500094105</v>
+        <v>0.3284508875233882</v>
       </c>
       <c r="M17">
-        <v>0.6629549582433327</v>
+        <v>0.3666270678350898</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.855783506064682</v>
+        <v>3.958266184863817</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.678688973597559</v>
+        <v>1.584309811644175</v>
       </c>
       <c r="C18">
-        <v>0.6067618343385561</v>
+        <v>0.2270563187604751</v>
       </c>
       <c r="D18">
-        <v>0.06525848225125941</v>
+        <v>0.1286843550517887</v>
       </c>
       <c r="E18">
-        <v>0.03845979534367894</v>
+        <v>0.1194567970282021</v>
       </c>
       <c r="F18">
-        <v>0.7296238405789595</v>
+        <v>1.553829684505814</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.3061647595747026</v>
+        <v>0.9324345257347382</v>
       </c>
       <c r="J18">
-        <v>0.06214080679810152</v>
+        <v>0.1508814300583179</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2689136955090845</v>
+        <v>0.3272241442763431</v>
       </c>
       <c r="M18">
-        <v>0.6467241495970413</v>
+        <v>0.3618996384379329</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.844589373066697</v>
+        <v>3.964430202551739</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.646950115451432</v>
+        <v>1.574673656450614</v>
       </c>
       <c r="C19">
-        <v>0.6022060950645596</v>
+        <v>0.225577543252399</v>
       </c>
       <c r="D19">
-        <v>0.06497598896613255</v>
+        <v>0.1286392912262997</v>
       </c>
       <c r="E19">
-        <v>0.03855765882223805</v>
+        <v>0.1195235742369887</v>
       </c>
       <c r="F19">
-        <v>0.727993840676767</v>
+        <v>1.554512493118089</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.3070747914720684</v>
+        <v>0.9333903583950729</v>
       </c>
       <c r="J19">
-        <v>0.06226488159494181</v>
+        <v>0.1509543143930134</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2670999192136634</v>
+        <v>0.3268103813541927</v>
       </c>
       <c r="M19">
-        <v>0.6412333466549498</v>
+        <v>0.3602997447643119</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.840905497692717</v>
+        <v>3.966559411436748</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.789861929886399</v>
+        <v>1.618038005682308</v>
       </c>
       <c r="C20">
-        <v>0.6227152057961973</v>
+        <v>0.2322282104556734</v>
       </c>
       <c r="D20">
-        <v>0.06625040299235962</v>
+        <v>0.1288440266177986</v>
       </c>
       <c r="E20">
-        <v>0.03812015717234685</v>
+        <v>0.1192251519310306</v>
       </c>
       <c r="F20">
-        <v>0.7354733997141949</v>
+        <v>1.551500322588701</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.3030675419795372</v>
+        <v>0.9291269384477872</v>
       </c>
       <c r="J20">
-        <v>0.06171055316503704</v>
+        <v>0.1506288432969942</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.275276727901101</v>
+        <v>0.3286786850686383</v>
       </c>
       <c r="M20">
-        <v>0.6659611884515755</v>
+        <v>0.3675023544466995</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.85790629275445</v>
+        <v>3.957145401185358</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.271661499431389</v>
+        <v>1.763738266572034</v>
       </c>
       <c r="C21">
-        <v>0.6917830966179395</v>
+        <v>0.2545026684908009</v>
       </c>
       <c r="D21">
-        <v>0.07058977097917563</v>
+        <v>0.1295657741898921</v>
       </c>
       <c r="E21">
-        <v>0.03670135873687386</v>
+        <v>0.1182588902556874</v>
       </c>
       <c r="F21">
-        <v>0.7632346644692944</v>
+        <v>1.542439570480575</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>0.2911996228370057</v>
+        <v>0.9154667302930548</v>
       </c>
       <c r="J21">
-        <v>0.05991935610184917</v>
+        <v>0.149579271382148</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3030201352989366</v>
+        <v>0.3350660658258988</v>
       </c>
       <c r="M21">
-        <v>0.7494015940905356</v>
+        <v>0.391751639618974</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.922745848022117</v>
+        <v>3.928451519232539</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.587987208635582</v>
+        <v>1.858953476297529</v>
       </c>
       <c r="C22">
-        <v>0.737072797827949</v>
+        <v>0.2690061687768832</v>
       </c>
       <c r="D22">
-        <v>0.07347140289054011</v>
+        <v>0.1300625477050943</v>
       </c>
       <c r="E22">
-        <v>0.03581282036139699</v>
+        <v>0.1176544503777204</v>
       </c>
       <c r="F22">
-        <v>0.7834709904458634</v>
+        <v>1.537307913591277</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>0.2847033681547195</v>
+        <v>0.9070346637577096</v>
       </c>
       <c r="J22">
-        <v>0.05880294204917114</v>
+        <v>0.1489259965597807</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3213722564925661</v>
+        <v>0.3393220178543856</v>
       </c>
       <c r="M22">
-        <v>0.8042428843045428</v>
+        <v>0.4076351264063831</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.971277061735066</v>
+        <v>3.911888653491161</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.419011395605253</v>
+        <v>1.808136717429932</v>
       </c>
       <c r="C23">
-        <v>0.712885077092011</v>
+        <v>0.2612704166854485</v>
       </c>
       <c r="D23">
-        <v>0.07192906603309979</v>
+        <v>0.1297951273403157</v>
       </c>
       <c r="E23">
-        <v>0.03628346626274226</v>
+        <v>0.1179745783550907</v>
       </c>
       <c r="F23">
-        <v>0.7724702172400129</v>
+        <v>1.539974469008953</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>0.2880505357051746</v>
+        <v>0.9114896267981933</v>
       </c>
       <c r="J23">
-        <v>0.05939375622484278</v>
+        <v>0.1492716768964808</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.311555992872826</v>
+        <v>0.3370431274244652</v>
       </c>
       <c r="M23">
-        <v>0.7749421089623851</v>
+        <v>0.3991547018611357</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.944785114444358</v>
+        <v>3.920528026319602</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.782008288024372</v>
+        <v>1.615656610231724</v>
       </c>
       <c r="C24">
-        <v>0.6215884156218294</v>
+        <v>0.2318632508308269</v>
       </c>
       <c r="D24">
-        <v>0.066180208610497</v>
+        <v>0.1288326556939552</v>
       </c>
       <c r="E24">
-        <v>0.03814399176173566</v>
+        <v>0.1192414027838256</v>
       </c>
       <c r="F24">
-        <v>0.735053083850211</v>
+        <v>1.55166175047998</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.3032817707321698</v>
+        <v>0.9293585674072489</v>
       </c>
       <c r="J24">
-        <v>0.06174072885912274</v>
+        <v>0.1506465509865365</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2748267248296941</v>
+        <v>0.3285756707429499</v>
       </c>
       <c r="M24">
-        <v>0.6646020064356861</v>
+        <v>0.36710663091025</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.85694463545741</v>
+        <v>3.957651333982994</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.099681914500479</v>
+        <v>1.408062899650076</v>
       </c>
       <c r="C25">
-        <v>0.5235612612086697</v>
+        <v>0.199918883432133</v>
       </c>
       <c r="D25">
-        <v>0.06015763759480564</v>
+        <v>0.1279032070290995</v>
       </c>
       <c r="E25">
-        <v>0.04031328676064927</v>
+        <v>0.1207244759200918</v>
       </c>
       <c r="F25">
-        <v>0.7028447984368142</v>
+        <v>1.567658865321278</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.324674838037101</v>
+        <v>0.9507576211713591</v>
       </c>
       <c r="J25">
-        <v>0.06449812076204076</v>
+        <v>0.1522704618070776</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2360360412325377</v>
+        <v>0.3197959785233593</v>
       </c>
       <c r="M25">
-        <v>0.5466457784821515</v>
+        <v>0.332699661531187</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.786083931397513</v>
+        <v>4.007084861261006</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_15/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.255269829919371</v>
+        <v>2.599877348393534</v>
       </c>
       <c r="C2">
-        <v>0.1762097630474386</v>
+        <v>0.4515638315073716</v>
       </c>
       <c r="D2">
-        <v>0.1273133655189014</v>
+        <v>0.05585826025983209</v>
       </c>
       <c r="E2">
-        <v>0.1219173530156605</v>
+        <v>0.04204650406653654</v>
       </c>
       <c r="F2">
-        <v>1.582352370776682</v>
+        <v>0.6852889589673623</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>0.9683392973090825</v>
+        <v>0.3442445198377051</v>
       </c>
       <c r="J2">
-        <v>0.1535881532749244</v>
+        <v>0.0667157857480678</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3136387744265221</v>
+        <v>0.208061075811429</v>
       </c>
       <c r="M2">
-        <v>0.3075114984643221</v>
+        <v>0.4604288824535629</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.051546183316731</v>
+        <v>1.75186959203694</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.151776496250079</v>
+        <v>2.262087948166311</v>
       </c>
       <c r="C3">
-        <v>0.1600266875665852</v>
+        <v>0.402789800942287</v>
       </c>
       <c r="D3">
-        <v>0.1269731100004137</v>
+        <v>0.05302042441565646</v>
       </c>
       <c r="E3">
-        <v>0.1227890251941952</v>
+        <v>0.04330419530580509</v>
       </c>
       <c r="F3">
-        <v>1.594128176722563</v>
+        <v>0.6768439346856496</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0.9813925671496371</v>
+        <v>0.3596823997611835</v>
       </c>
       <c r="J3">
-        <v>0.1545577064332466</v>
+        <v>0.06833253175330789</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3096592936175568</v>
+        <v>0.1894113287071377</v>
       </c>
       <c r="M3">
-        <v>0.2905356750175656</v>
+        <v>0.4022683184942082</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.086702161348327</v>
+        <v>1.738706331347004</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.088267293464526</v>
+        <v>2.054941790346106</v>
       </c>
       <c r="C4">
-        <v>0.1500344830694473</v>
+        <v>0.3728245631135678</v>
       </c>
       <c r="D4">
-        <v>0.1267937272371427</v>
+        <v>0.05131292371110874</v>
       </c>
       <c r="E4">
-        <v>0.1233555329943212</v>
+        <v>0.04411684267859117</v>
       </c>
       <c r="F4">
-        <v>1.602255175343331</v>
+        <v>0.6732422785034871</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0.9899683364320921</v>
+        <v>0.3701706968076017</v>
       </c>
       <c r="J4">
-        <v>0.1551909129100846</v>
+        <v>0.06938040858970496</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.307311879447667</v>
+        <v>0.1780957573961501</v>
       </c>
       <c r="M4">
-        <v>0.2801605470758588</v>
+        <v>0.3666529618048742</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.110764405732596</v>
+        <v>1.735206797073161</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.062397676821718</v>
+        <v>1.970566315821543</v>
       </c>
       <c r="C5">
-        <v>0.1459488057901694</v>
+        <v>0.3606054485325672</v>
       </c>
       <c r="D5">
-        <v>0.1267280878345645</v>
+        <v>0.05062555651615597</v>
       </c>
       <c r="E5">
-        <v>0.1235942730177677</v>
+        <v>0.04445808408557417</v>
       </c>
       <c r="F5">
-        <v>1.605792459628823</v>
+        <v>0.6721560155657684</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0.993604038086449</v>
+        <v>0.3746895562568788</v>
       </c>
       <c r="J5">
-        <v>0.1554584992766248</v>
+        <v>0.06982116754377898</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3063795564471761</v>
+        <v>0.173516333246269</v>
       </c>
       <c r="M5">
-        <v>0.2759450119319098</v>
+        <v>0.3521584717922011</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.121192419656083</v>
+        <v>1.734882259272837</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.058102758662926</v>
+        <v>1.956557400031613</v>
       </c>
       <c r="C6">
-        <v>0.1452695574827203</v>
+        <v>0.3585758890011164</v>
       </c>
       <c r="D6">
-        <v>0.1267176400486321</v>
+        <v>0.05051192090737899</v>
       </c>
       <c r="E6">
-        <v>0.1236343921564678</v>
+        <v>0.04451535345603186</v>
       </c>
       <c r="F6">
-        <v>1.606393440824036</v>
+        <v>0.6719982052012696</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0.9942162581111873</v>
+        <v>0.3754544384392382</v>
       </c>
       <c r="J6">
-        <v>0.1555035091536894</v>
+        <v>0.06989518127430472</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3062262143442069</v>
+        <v>0.1727577771112792</v>
       </c>
       <c r="M6">
-        <v>0.2752457847349135</v>
+        <v>0.3497526851118948</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.122961571078477</v>
+        <v>1.734893461404454</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.087918360221806</v>
+        <v>2.053803752128772</v>
       </c>
       <c r="C7">
-        <v>0.1499794376406953</v>
+        <v>0.3726598089351683</v>
       </c>
       <c r="D7">
-        <v>0.1267928117479755</v>
+        <v>0.0513036198357355</v>
       </c>
       <c r="E7">
-        <v>0.1233587207878397</v>
+        <v>0.0441214040691702</v>
       </c>
       <c r="F7">
-        <v>1.602301967483548</v>
+        <v>0.673226105923078</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0.9900167979344694</v>
+        <v>0.3702306601825391</v>
       </c>
       <c r="J7">
-        <v>0.1551944829810772</v>
+        <v>0.06938629735856594</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3072992073874588</v>
+        <v>0.1780338720138346</v>
       </c>
       <c r="M7">
-        <v>0.2801036442068821</v>
+        <v>0.3664574131963363</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.1109025216075</v>
+        <v>1.735198025473053</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.219578884434895</v>
+        <v>2.483337395167553</v>
       </c>
       <c r="C8">
-        <v>0.1706415448983876</v>
+        <v>0.4347480007511706</v>
       </c>
       <c r="D8">
-        <v>0.1271899351616241</v>
+        <v>0.05487231454528541</v>
       </c>
       <c r="E8">
-        <v>0.122211417934631</v>
+        <v>0.04247171632275015</v>
       </c>
       <c r="F8">
-        <v>1.586226581612159</v>
+        <v>0.6820380829370123</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0.9727235898947804</v>
+        <v>0.3493524452709309</v>
       </c>
       <c r="J8">
-        <v>0.1539146017823541</v>
+        <v>0.06726170091321393</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3122467980090917</v>
+        <v>0.2016011019019004</v>
       </c>
       <c r="M8">
-        <v>0.3016484377177022</v>
+        <v>0.4403522133484756</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.06315385639715</v>
+        <v>1.746348379581548</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.477984808978306</v>
+        <v>3.329026048887556</v>
       </c>
       <c r="C9">
-        <v>0.2107090024373974</v>
+        <v>0.5565408483981571</v>
       </c>
       <c r="D9">
-        <v>0.1282016814555931</v>
+        <v>0.06216420448033944</v>
       </c>
       <c r="E9">
-        <v>0.1202092679808198</v>
+        <v>0.03956119305939065</v>
       </c>
       <c r="F9">
-        <v>1.561817346997117</v>
+        <v>0.7126830680512697</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0.943265610404989</v>
+        <v>0.3168466258995117</v>
       </c>
       <c r="J9">
-        <v>0.1517045478677037</v>
+        <v>0.06353974279956631</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3227059155219223</v>
+        <v>0.2490036829273095</v>
       </c>
       <c r="M9">
-        <v>0.3442675539320419</v>
+        <v>0.5862633160300774</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.989179689005738</v>
+        <v>1.806998574847711</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.667899729087026</v>
+        <v>3.954453209955432</v>
       </c>
       <c r="C10">
-        <v>0.2398628693825344</v>
+        <v>0.6463225425533494</v>
       </c>
       <c r="D10">
-        <v>0.129085382618328</v>
+        <v>0.06772561336132554</v>
       </c>
       <c r="E10">
-        <v>0.1188884091111198</v>
+        <v>0.03762603622993366</v>
       </c>
       <c r="F10">
-        <v>1.548222672724989</v>
+        <v>0.7445249469851447</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0.924341245825989</v>
+        <v>0.2987345333941676</v>
       </c>
       <c r="J10">
-        <v>0.1502623289237306</v>
+        <v>0.06108559441829264</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3308462316967962</v>
+        <v>0.2847245171736574</v>
       </c>
       <c r="M10">
-        <v>0.3757927740185778</v>
+        <v>0.6944532025846257</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.94683564734774</v>
+        <v>1.878777533715009</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.754297375352394</v>
+        <v>4.240362295264106</v>
       </c>
       <c r="C11">
-        <v>0.253062443140692</v>
+        <v>0.6872995147033123</v>
       </c>
       <c r="D11">
-        <v>0.1295175412505074</v>
+        <v>0.07030598657554776</v>
       </c>
       <c r="E11">
-        <v>0.1183199238025776</v>
+        <v>0.0367910505101583</v>
       </c>
       <c r="F11">
-        <v>1.54298065069338</v>
+        <v>0.7613166137486687</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0.9163230144484018</v>
+        <v>0.2918967106000387</v>
       </c>
       <c r="J11">
-        <v>0.1496453755646154</v>
+        <v>0.06003228584994247</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3346474127728385</v>
+        <v>0.3012099651583071</v>
       </c>
       <c r="M11">
-        <v>0.3901782338862034</v>
+        <v>0.7439776920279968</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.930183228263871</v>
+        <v>1.918194181838373</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.787013009736484</v>
+        <v>4.348873425976763</v>
       </c>
       <c r="C12">
-        <v>0.2580515661375102</v>
+        <v>0.7028417892389598</v>
       </c>
       <c r="D12">
-        <v>0.1296854940011229</v>
+        <v>0.07129089531163402</v>
       </c>
       <c r="E12">
-        <v>0.1181092955184613</v>
+        <v>0.03648149385235078</v>
       </c>
       <c r="F12">
-        <v>1.541131153565296</v>
+        <v>0.7680320606234545</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0.9133717140742164</v>
+        <v>0.2895223711206079</v>
       </c>
       <c r="J12">
-        <v>0.1494173569158797</v>
+        <v>0.05964270693928242</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3361008179275728</v>
+        <v>0.3074901086514075</v>
       </c>
       <c r="M12">
-        <v>0.3956317567994887</v>
+        <v>0.76278370944204</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.924253051532332</v>
+        <v>1.934169551735835</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.779967199694397</v>
+        <v>4.325492068631263</v>
       </c>
       <c r="C13">
-        <v>0.2569774855626861</v>
+        <v>0.6994932647127996</v>
       </c>
       <c r="D13">
-        <v>0.1296491314901473</v>
+        <v>0.07107842295845046</v>
       </c>
       <c r="E13">
-        <v>0.1181544516924378</v>
+        <v>0.03654786543482702</v>
       </c>
       <c r="F13">
-        <v>1.541523446828116</v>
+        <v>0.7665694805107748</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0.9140035459651727</v>
+        <v>0.2900239408580525</v>
       </c>
       <c r="J13">
-        <v>0.1494662156557229</v>
+        <v>0.05972619316992045</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3357871813700513</v>
+        <v>0.3061358419014653</v>
       </c>
       <c r="M13">
-        <v>0.3944569787830901</v>
+        <v>0.7587310456556295</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.925513503966499</v>
+        <v>1.930681031172497</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.756988946819206</v>
+        <v>4.249284435047002</v>
       </c>
       <c r="C14">
-        <v>0.2534730885275849</v>
+        <v>0.6885776473081648</v>
       </c>
       <c r="D14">
-        <v>0.1295312727623568</v>
+        <v>0.07038685660965882</v>
       </c>
       <c r="E14">
-        <v>0.1183025022641555</v>
+        <v>0.03676544944735127</v>
       </c>
       <c r="F14">
-        <v>1.54282577470795</v>
+        <v>0.7618617963307486</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0.9160785044452986</v>
+        <v>0.2916969828591505</v>
       </c>
       <c r="J14">
-        <v>0.1496265040338933</v>
+        <v>0.06000004757573763</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3347667058315409</v>
+        <v>0.3017258642778415</v>
       </c>
       <c r="M14">
-        <v>0.390626778926368</v>
+        <v>0.7455237818364111</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.929687816502707</v>
+        <v>1.919487000714412</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.74291388036886</v>
+        <v>4.202638093904341</v>
       </c>
       <c r="C15">
-        <v>0.2513253294292781</v>
+        <v>0.6818949765629156</v>
       </c>
       <c r="D15">
-        <v>0.1294596403706478</v>
+        <v>0.06996428125559362</v>
       </c>
       <c r="E15">
-        <v>0.1183937920613474</v>
+        <v>0.03689959348092087</v>
       </c>
       <c r="F15">
-        <v>1.543641141182775</v>
+        <v>0.7590254469446904</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0.9173605530378381</v>
+        <v>0.2927501842495097</v>
       </c>
       <c r="J15">
-        <v>0.1497254151431182</v>
+        <v>0.06016900722099017</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3341434519742847</v>
+        <v>0.2990296141329765</v>
       </c>
       <c r="M15">
-        <v>0.3882814504083569</v>
+        <v>0.7374409880363473</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.932293646929679</v>
+        <v>1.912769328298026</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.662253364477863</v>
+        <v>3.935800078514148</v>
       </c>
       <c r="C16">
-        <v>0.2389989631051037</v>
+        <v>0.643647798678785</v>
       </c>
       <c r="D16">
-        <v>0.1290577440683833</v>
+        <v>0.06755803894948542</v>
       </c>
       <c r="E16">
-        <v>0.1189262115518979</v>
+        <v>0.03768152641008093</v>
       </c>
       <c r="F16">
-        <v>1.548584215939428</v>
+        <v>0.7434760938240643</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0.9248771488939944</v>
+        <v>0.2992107318381834</v>
       </c>
       <c r="J16">
-        <v>0.1503034339891105</v>
+        <v>0.06115571813913512</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3305997788699244</v>
+        <v>0.2836521975524988</v>
       </c>
       <c r="M16">
-        <v>0.3748535167683471</v>
+        <v>0.6912235208436712</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.947976478545286</v>
+        <v>1.876344084945458</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.612770512264206</v>
+        <v>3.772491047974711</v>
       </c>
       <c r="C17">
-        <v>0.2314209021710667</v>
+        <v>0.6202229004807975</v>
       </c>
       <c r="D17">
-        <v>0.1288188944185222</v>
+        <v>0.06609516982012309</v>
       </c>
       <c r="E17">
-        <v>0.1192611187981054</v>
+        <v>0.03817290710590271</v>
       </c>
       <c r="F17">
-        <v>1.551858001861191</v>
+        <v>0.7345451676213273</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0.9296396700124703</v>
+        <v>0.3035423029892321</v>
       </c>
       <c r="J17">
-        <v>0.1506680369693161</v>
+        <v>0.0617773406852109</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3284508875233882</v>
+        <v>0.2742815000941619</v>
       </c>
       <c r="M17">
-        <v>0.3666270678350898</v>
+        <v>0.6629549582433185</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.958266184863817</v>
+        <v>1.855783506064682</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.584309811644175</v>
+        <v>3.678688973597389</v>
       </c>
       <c r="C18">
-        <v>0.2270563187604751</v>
+        <v>0.606761834338954</v>
       </c>
       <c r="D18">
-        <v>0.1286843550517887</v>
+        <v>0.06525848225148678</v>
       </c>
       <c r="E18">
-        <v>0.1194567970282021</v>
+        <v>0.03845979534369137</v>
       </c>
       <c r="F18">
-        <v>1.553829684505814</v>
+        <v>0.7296238405789595</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0.9324345257347382</v>
+        <v>0.3061647595747026</v>
       </c>
       <c r="J18">
-        <v>0.1508814300583179</v>
+        <v>0.06214080679805889</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3272241442763431</v>
+        <v>0.2689136955090419</v>
       </c>
       <c r="M18">
-        <v>0.3618996384379329</v>
+        <v>0.6467241495970342</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.964430202551739</v>
+        <v>1.84458937306664</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.574673656450614</v>
+        <v>3.646950115451546</v>
       </c>
       <c r="C19">
-        <v>0.225577543252399</v>
+        <v>0.6022060950641048</v>
       </c>
       <c r="D19">
-        <v>0.1286392912262997</v>
+        <v>0.06497598896591938</v>
       </c>
       <c r="E19">
-        <v>0.1195235742369887</v>
+        <v>0.03855765882223983</v>
       </c>
       <c r="F19">
-        <v>1.554512493118089</v>
+        <v>0.7279938406767243</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0.9333903583950729</v>
+        <v>0.3070747914720648</v>
       </c>
       <c r="J19">
-        <v>0.1509543143930134</v>
+        <v>0.06226488159495958</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3268103813541927</v>
+        <v>0.267099919213706</v>
       </c>
       <c r="M19">
-        <v>0.3602997447643119</v>
+        <v>0.6412333466549569</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.966559411436748</v>
+        <v>1.840905497692802</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.618038005682308</v>
+        <v>3.789861929886342</v>
       </c>
       <c r="C20">
-        <v>0.2322282104556734</v>
+        <v>0.6227152057962257</v>
       </c>
       <c r="D20">
-        <v>0.1288440266177986</v>
+        <v>0.06625040299229568</v>
       </c>
       <c r="E20">
-        <v>0.1192251519310306</v>
+        <v>0.03812015717233441</v>
       </c>
       <c r="F20">
-        <v>1.551500322588701</v>
+        <v>0.7354733997141736</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0.9291269384477872</v>
+        <v>0.3030675419795408</v>
       </c>
       <c r="J20">
-        <v>0.1506288432969942</v>
+        <v>0.0617105531649571</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3286786850686383</v>
+        <v>0.2752767279010442</v>
       </c>
       <c r="M20">
-        <v>0.3675023544466995</v>
+        <v>0.6659611884515826</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.957145401185358</v>
+        <v>1.857906292754478</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.763738266572034</v>
+        <v>4.271661499431161</v>
       </c>
       <c r="C21">
-        <v>0.2545026684908009</v>
+        <v>0.6917830966174847</v>
       </c>
       <c r="D21">
-        <v>0.1295657741898921</v>
+        <v>0.07058977097920405</v>
       </c>
       <c r="E21">
-        <v>0.1182588902556874</v>
+        <v>0.03670135873685965</v>
       </c>
       <c r="F21">
-        <v>1.542439570480575</v>
+        <v>0.7632346644693015</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0.9154667302930548</v>
+        <v>0.2911996228369986</v>
       </c>
       <c r="J21">
-        <v>0.149579271382148</v>
+        <v>0.05991935610187227</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3350660658258988</v>
+        <v>0.3030201352988797</v>
       </c>
       <c r="M21">
-        <v>0.391751639618974</v>
+        <v>0.7494015940905285</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.928451519232539</v>
+        <v>1.922745848022117</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.858953476297529</v>
+        <v>4.587987208635582</v>
       </c>
       <c r="C22">
-        <v>0.2690061687768832</v>
+        <v>0.7370727978276932</v>
       </c>
       <c r="D22">
-        <v>0.1300625477050943</v>
+        <v>0.07347140289054011</v>
       </c>
       <c r="E22">
-        <v>0.1176544503777204</v>
+        <v>0.03581282036136946</v>
       </c>
       <c r="F22">
-        <v>1.537307913591277</v>
+        <v>0.7834709904458492</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0.9070346637577096</v>
+        <v>0.2847033681547266</v>
       </c>
       <c r="J22">
-        <v>0.1489259965597807</v>
+        <v>0.05880294204920844</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3393220178543856</v>
+        <v>0.3213722564926371</v>
       </c>
       <c r="M22">
-        <v>0.4076351264063831</v>
+        <v>0.8042428843045499</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.911888653491161</v>
+        <v>1.971277061735066</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.808136717429932</v>
+        <v>4.419011395605139</v>
       </c>
       <c r="C23">
-        <v>0.2612704166854485</v>
+        <v>0.7128850770926931</v>
       </c>
       <c r="D23">
-        <v>0.1297951273403157</v>
+        <v>0.07192906603303584</v>
       </c>
       <c r="E23">
-        <v>0.1179745783550907</v>
+        <v>0.03628346626276713</v>
       </c>
       <c r="F23">
-        <v>1.539974469008953</v>
+        <v>0.7724702172400129</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0.9114896267981933</v>
+        <v>0.2880505357051568</v>
       </c>
       <c r="J23">
-        <v>0.1492716768964808</v>
+        <v>0.05939375622474152</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3370431274244652</v>
+        <v>0.3115559928726981</v>
       </c>
       <c r="M23">
-        <v>0.3991547018611357</v>
+        <v>0.7749421089623993</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.920528026319602</v>
+        <v>1.944785114444386</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.615656610231724</v>
+        <v>3.782008288024372</v>
       </c>
       <c r="C24">
-        <v>0.2318632508308269</v>
+        <v>0.6215884156216589</v>
       </c>
       <c r="D24">
-        <v>0.1288326556939552</v>
+        <v>0.06618020861044727</v>
       </c>
       <c r="E24">
-        <v>0.1192414027838256</v>
+        <v>0.038143991761733</v>
       </c>
       <c r="F24">
-        <v>1.55166175047998</v>
+        <v>0.7350530838502252</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0.9293585674072489</v>
+        <v>0.3032817707321733</v>
       </c>
       <c r="J24">
-        <v>0.1506465509865365</v>
+        <v>0.06174072885901261</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3285756707429499</v>
+        <v>0.2748267248295946</v>
       </c>
       <c r="M24">
-        <v>0.36710663091025</v>
+        <v>0.6646020064356861</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.957651333982994</v>
+        <v>1.856944635457381</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.408062899650076</v>
+        <v>3.099681914500479</v>
       </c>
       <c r="C25">
-        <v>0.199918883432133</v>
+        <v>0.5235612612086697</v>
       </c>
       <c r="D25">
-        <v>0.1279032070290995</v>
+        <v>0.06015763759474169</v>
       </c>
       <c r="E25">
-        <v>0.1207244759200918</v>
+        <v>0.04031328676061952</v>
       </c>
       <c r="F25">
-        <v>1.567658865321278</v>
+        <v>0.7028447984368071</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0.9507576211713591</v>
+        <v>0.3246748380371116</v>
       </c>
       <c r="J25">
-        <v>0.1522704618070776</v>
+        <v>0.0644981207620372</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3197959785233593</v>
+        <v>0.2360360412325946</v>
       </c>
       <c r="M25">
-        <v>0.332699661531187</v>
+        <v>0.5466457784821301</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.007084861261006</v>
+        <v>1.786083931397513</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_15/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.599877348393534</v>
+        <v>2.944507489732928</v>
       </c>
       <c r="C2">
-        <v>0.4515638315073716</v>
+        <v>1.209052486959024</v>
       </c>
       <c r="D2">
-        <v>0.05585826025983209</v>
+        <v>0.03006627087280656</v>
       </c>
       <c r="E2">
-        <v>0.04204650406653654</v>
+        <v>0.1965729269742873</v>
       </c>
       <c r="F2">
-        <v>0.6852889589673623</v>
+        <v>1.818037938387235</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.001866671460287295</v>
       </c>
       <c r="I2">
-        <v>0.3442445198377051</v>
+        <v>0.004613234396973809</v>
       </c>
       <c r="J2">
-        <v>0.0667157857480678</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8690941238603074</v>
       </c>
       <c r="L2">
-        <v>0.208061075811429</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4604288824535629</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.75186959203694</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>1.136904289472596</v>
+      </c>
+      <c r="P2">
+        <v>0.8889696615110836</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.262087948166311</v>
+        <v>2.555635376812802</v>
       </c>
       <c r="C3">
-        <v>0.402789800942287</v>
+        <v>1.045859858990582</v>
       </c>
       <c r="D3">
-        <v>0.05302042441565646</v>
+        <v>0.02968406366660048</v>
       </c>
       <c r="E3">
-        <v>0.04330419530580509</v>
+        <v>0.1705310893070724</v>
       </c>
       <c r="F3">
-        <v>0.6768439346856496</v>
+        <v>1.627327719936773</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0.0006053601609514736</v>
+      </c>
+      <c r="I3">
+        <v>0.002219121399920532</v>
+      </c>
+      <c r="J3">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I3">
-        <v>0.3596823997611835</v>
-      </c>
-      <c r="J3">
-        <v>0.06833253175330789</v>
-      </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.8002531361099869</v>
       </c>
       <c r="L3">
-        <v>0.1894113287071377</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4022683184942082</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.738706331347004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.9882810244718314</v>
+      </c>
+      <c r="P3">
+        <v>0.9104360956829751</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.054941790346106</v>
+        <v>2.317058154447409</v>
       </c>
       <c r="C4">
-        <v>0.3728245631135678</v>
+        <v>0.9467452834121843</v>
       </c>
       <c r="D4">
-        <v>0.05131292371110874</v>
+        <v>0.02941525277621082</v>
       </c>
       <c r="E4">
-        <v>0.04411684267859117</v>
+        <v>0.1547547677263381</v>
       </c>
       <c r="F4">
-        <v>0.6732422785034871</v>
+        <v>1.511415195804574</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0.0001647469920338374</v>
+      </c>
+      <c r="I4">
+        <v>0.001236806053302786</v>
+      </c>
+      <c r="J4">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I4">
-        <v>0.3701706968076017</v>
-      </c>
-      <c r="J4">
-        <v>0.06938040858970496</v>
-      </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7583099798114006</v>
       </c>
       <c r="L4">
-        <v>0.1780957573961501</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3666529618048742</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.735206797073161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.8973093375673002</v>
+      </c>
+      <c r="P4">
+        <v>0.9238759381368951</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.970566315821543</v>
+        <v>2.217813171462581</v>
       </c>
       <c r="C5">
-        <v>0.3606054485325672</v>
+        <v>0.9071004999311754</v>
       </c>
       <c r="D5">
-        <v>0.05062555651615597</v>
+        <v>0.02925407302718064</v>
       </c>
       <c r="E5">
-        <v>0.04445808408557417</v>
+        <v>0.1484016389071208</v>
       </c>
       <c r="F5">
-        <v>0.6721560155657684</v>
+        <v>1.46261558203679</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>6.283574086651811E-05</v>
+      </c>
+      <c r="I5">
+        <v>0.001008948195281523</v>
+      </c>
+      <c r="J5">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I5">
-        <v>0.3746895562568788</v>
-      </c>
-      <c r="J5">
-        <v>0.06982116754377898</v>
-      </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.7400324967665952</v>
       </c>
       <c r="L5">
-        <v>0.173516333246269</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3521584717922011</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.734882259272837</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.8600871568718347</v>
+      </c>
+      <c r="P5">
+        <v>0.9286537863716688</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.956557400031613</v>
+        <v>2.198851773306671</v>
       </c>
       <c r="C6">
-        <v>0.3585758890011164</v>
+        <v>0.9011554335461653</v>
       </c>
       <c r="D6">
-        <v>0.05051192090737899</v>
+        <v>0.02917431537180448</v>
       </c>
       <c r="E6">
-        <v>0.04451535345603186</v>
+        <v>0.1473873360657123</v>
       </c>
       <c r="F6">
-        <v>0.6719982052012696</v>
+        <v>1.452303375522845</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>5.010715871955895E-05</v>
+      </c>
+      <c r="I6">
+        <v>0.001057681912061348</v>
+      </c>
+      <c r="J6">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I6">
-        <v>0.3754544384392382</v>
-      </c>
-      <c r="J6">
-        <v>0.06989518127430472</v>
-      </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.7354718533341682</v>
       </c>
       <c r="L6">
-        <v>0.1727577771112792</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3497526851118948</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.734893461404454</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.8536615625539383</v>
+      </c>
+      <c r="P6">
+        <v>0.9285274714263636</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.053803752128772</v>
+        <v>2.308912059049248</v>
       </c>
       <c r="C7">
-        <v>0.3726598089351683</v>
+        <v>0.9479197829504358</v>
       </c>
       <c r="D7">
-        <v>0.0513036198357355</v>
+        <v>0.02926953689015477</v>
       </c>
       <c r="E7">
-        <v>0.0441214040691702</v>
+        <v>0.1547727554728411</v>
       </c>
       <c r="F7">
-        <v>0.673226105923078</v>
+        <v>1.504668032562932</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0.0001611521175903796</v>
+      </c>
+      <c r="I7">
+        <v>0.00143331507100708</v>
+      </c>
+      <c r="J7">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I7">
-        <v>0.3702306601825391</v>
-      </c>
-      <c r="J7">
-        <v>0.06938629735856594</v>
-      </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7538766478219969</v>
       </c>
       <c r="L7">
-        <v>0.1780338720138346</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3664574131963363</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.735198025473053</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.8961274421279128</v>
+      </c>
+      <c r="P7">
+        <v>0.921429090334108</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.483337395167553</v>
+        <v>2.801214225126557</v>
       </c>
       <c r="C8">
-        <v>0.4347480007511706</v>
+        <v>1.154813713202827</v>
       </c>
       <c r="D8">
-        <v>0.05487231454528541</v>
+        <v>0.02975189932809919</v>
       </c>
       <c r="E8">
-        <v>0.04247171632275015</v>
+        <v>0.1876791154756141</v>
       </c>
       <c r="F8">
-        <v>0.6820380829370123</v>
+        <v>1.743885551467343</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0.001351713825913814</v>
+      </c>
+      <c r="I8">
+        <v>0.003901686627202139</v>
+      </c>
+      <c r="J8">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I8">
-        <v>0.3493524452709309</v>
-      </c>
-      <c r="J8">
-        <v>0.06726170091321393</v>
-      </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8397039375994595</v>
       </c>
       <c r="L8">
-        <v>0.2016011019019004</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4403522133484756</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.746348379581548</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>1.084670607460581</v>
+      </c>
+      <c r="P8">
+        <v>0.8930445331482204</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.329026048887556</v>
+        <v>3.782739940955253</v>
       </c>
       <c r="C9">
-        <v>0.5565408483981571</v>
+        <v>1.567926282185795</v>
       </c>
       <c r="D9">
-        <v>0.06216420448033944</v>
+        <v>0.03067964048273453</v>
       </c>
       <c r="E9">
-        <v>0.03956119305939065</v>
+        <v>0.2541556295123613</v>
       </c>
       <c r="F9">
-        <v>0.7126830680512697</v>
+        <v>2.235586214465329</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0.006635943725575078</v>
+      </c>
+      <c r="I9">
+        <v>0.01281017299096909</v>
+      </c>
+      <c r="J9">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I9">
-        <v>0.3168466258995117</v>
-      </c>
-      <c r="J9">
-        <v>0.06353974279956631</v>
-      </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.018944611280162</v>
       </c>
       <c r="L9">
-        <v>0.2490036829273095</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5862633160300774</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.806998574847711</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.458867085126741</v>
+      </c>
+      <c r="P9">
+        <v>0.8441660410048044</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.954453209955432</v>
+        <v>4.492445174574641</v>
       </c>
       <c r="C10">
-        <v>0.6463225425533494</v>
+        <v>1.869021487127668</v>
       </c>
       <c r="D10">
-        <v>0.06772561336132554</v>
+        <v>0.03044033678748903</v>
       </c>
       <c r="E10">
-        <v>0.03762603622993366</v>
+        <v>0.283619800316572</v>
       </c>
       <c r="F10">
-        <v>0.7445249469851447</v>
+        <v>2.571822374456218</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.01241457447408889</v>
+      </c>
+      <c r="I10">
+        <v>0.02252158318005826</v>
+      </c>
+      <c r="J10">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I10">
-        <v>0.2987345333941676</v>
-      </c>
-      <c r="J10">
-        <v>0.06108559441829264</v>
-      </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.134204069665884</v>
       </c>
       <c r="L10">
-        <v>0.2847245171736574</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6944532025846257</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.878777533715009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.688611702720209</v>
+      </c>
+      <c r="P10">
+        <v>0.7974057976533757</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.240362295264106</v>
+        <v>4.686785994216734</v>
       </c>
       <c r="C11">
-        <v>0.6872995147033123</v>
+        <v>1.90244603418148</v>
       </c>
       <c r="D11">
-        <v>0.07030598657554776</v>
+        <v>0.02550039898498646</v>
       </c>
       <c r="E11">
-        <v>0.0367910505101583</v>
+        <v>0.1536455821620599</v>
       </c>
       <c r="F11">
-        <v>0.7613166137486687</v>
+        <v>2.44018863463566</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0.03007686114477792</v>
+      </c>
+      <c r="I11">
+        <v>0.02576779047291566</v>
+      </c>
+      <c r="J11">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I11">
-        <v>0.2918967106000387</v>
-      </c>
-      <c r="J11">
-        <v>0.06003228584994247</v>
-      </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.03157967864334</v>
       </c>
       <c r="L11">
-        <v>0.3012099651583071</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7439776920279968</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.918194181838373</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.394091911343466</v>
+      </c>
+      <c r="P11">
+        <v>0.6868752207806494</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.348873425976763</v>
+        <v>4.710295000550445</v>
       </c>
       <c r="C12">
-        <v>0.7028417892389598</v>
+        <v>1.863486150153733</v>
       </c>
       <c r="D12">
-        <v>0.07129089531163402</v>
+        <v>0.02320718507115749</v>
       </c>
       <c r="E12">
-        <v>0.03648149385235078</v>
+        <v>0.09397813404811739</v>
       </c>
       <c r="F12">
-        <v>0.7680320606234545</v>
+        <v>2.270669429192779</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0.06745408891634241</v>
+      </c>
+      <c r="I12">
+        <v>0.02606814464446305</v>
+      </c>
+      <c r="J12">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I12">
-        <v>0.2895223711206079</v>
-      </c>
-      <c r="J12">
-        <v>0.05964270693928242</v>
-      </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.9310327272733261</v>
       </c>
       <c r="L12">
-        <v>0.3074901086514075</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.76278370944204</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.934169551735835</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.125349159078866</v>
+      </c>
+      <c r="P12">
+        <v>0.6245128731087952</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.325492068631263</v>
+        <v>4.592257173810367</v>
       </c>
       <c r="C13">
-        <v>0.6994932647127996</v>
+        <v>1.769487420891437</v>
       </c>
       <c r="D13">
-        <v>0.07107842295845046</v>
+        <v>0.02255572063248223</v>
       </c>
       <c r="E13">
-        <v>0.03654786543482702</v>
+        <v>0.08408781585475822</v>
       </c>
       <c r="F13">
-        <v>0.7665694805107748</v>
+        <v>2.053033111091736</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.1215135883736878</v>
+      </c>
+      <c r="I13">
+        <v>0.02429361797186491</v>
+      </c>
+      <c r="J13">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I13">
-        <v>0.2900239408580525</v>
-      </c>
-      <c r="J13">
-        <v>0.05972619316992045</v>
-      </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.8199263654141902</v>
       </c>
       <c r="L13">
-        <v>0.3061358419014653</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7587310456556295</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.930681031172497</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.8621114291435745</v>
+      </c>
+      <c r="P13">
+        <v>0.590815502309594</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.249284435047002</v>
+        <v>4.444239908574843</v>
       </c>
       <c r="C14">
-        <v>0.6885776473081648</v>
+        <v>1.68014292624963</v>
       </c>
       <c r="D14">
-        <v>0.07038685660965882</v>
+        <v>0.0230312008350726</v>
       </c>
       <c r="E14">
-        <v>0.03676544944735127</v>
+        <v>0.1066527714563499</v>
       </c>
       <c r="F14">
-        <v>0.7618617963307486</v>
+        <v>1.879431507197438</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0.1696034822590207</v>
+      </c>
+      <c r="I14">
+        <v>0.02227725588324425</v>
+      </c>
+      <c r="J14">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I14">
-        <v>0.2916969828591505</v>
-      </c>
-      <c r="J14">
-        <v>0.06000004757573763</v>
-      </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.7376176290160288</v>
       </c>
       <c r="L14">
-        <v>0.3017258642778415</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7455237818364111</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.919487000714412</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.6858848506120765</v>
+      </c>
+      <c r="P14">
+        <v>0.5819646270134062</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.202638093904341</v>
+        <v>4.375662450119023</v>
       </c>
       <c r="C15">
-        <v>0.6818949765629156</v>
+        <v>1.647577062405333</v>
       </c>
       <c r="D15">
-        <v>0.06996428125559362</v>
+        <v>0.02330008536464945</v>
       </c>
       <c r="E15">
-        <v>0.03689959348092087</v>
+        <v>0.1152743745657716</v>
       </c>
       <c r="F15">
-        <v>0.7590254469446904</v>
+        <v>1.824843356157913</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.1816427305587354</v>
+      </c>
+      <c r="I15">
+        <v>0.02144689062370464</v>
+      </c>
+      <c r="J15">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I15">
-        <v>0.2927501842495097</v>
-      </c>
-      <c r="J15">
-        <v>0.06016900722099017</v>
-      </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.7137172302139589</v>
       </c>
       <c r="L15">
-        <v>0.2990296141329765</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7374409880363473</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.912769328298026</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.6409952027458345</v>
+      </c>
+      <c r="P15">
+        <v>0.5834476788960743</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.935800078514148</v>
+        <v>4.091779124231493</v>
       </c>
       <c r="C16">
-        <v>0.643647798678785</v>
+        <v>1.539904098875752</v>
       </c>
       <c r="D16">
-        <v>0.06755803894948542</v>
+        <v>0.02348936759423736</v>
       </c>
       <c r="E16">
-        <v>0.03768152641008093</v>
+        <v>0.1053317970788292</v>
       </c>
       <c r="F16">
-        <v>0.7434760938240643</v>
+        <v>1.725155959305908</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.1670155698056561</v>
+      </c>
+      <c r="I16">
+        <v>0.01757363020620151</v>
+      </c>
+      <c r="J16">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I16">
-        <v>0.2992107318381834</v>
-      </c>
-      <c r="J16">
-        <v>0.06115571813913512</v>
-      </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.6866579006712641</v>
       </c>
       <c r="L16">
-        <v>0.2836521975524988</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6912235208436712</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.876344084945458</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.6057032771138537</v>
+      </c>
+      <c r="P16">
+        <v>0.6077490476355092</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.772491047974711</v>
+        <v>3.952566391616472</v>
       </c>
       <c r="C17">
-        <v>0.6202229004807975</v>
+        <v>1.504723706222137</v>
       </c>
       <c r="D17">
-        <v>0.06609516982012309</v>
+        <v>0.02323609099993362</v>
       </c>
       <c r="E17">
-        <v>0.03817290710590271</v>
+        <v>0.08081233731224025</v>
       </c>
       <c r="F17">
-        <v>0.7345451676213273</v>
+        <v>1.739754021860136</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.1284255163417924</v>
+      </c>
+      <c r="I17">
+        <v>0.0157363273220783</v>
+      </c>
+      <c r="J17">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I17">
-        <v>0.3035423029892321</v>
-      </c>
-      <c r="J17">
-        <v>0.0617773406852109</v>
-      </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.7087407875700507</v>
       </c>
       <c r="L17">
-        <v>0.2742815000941619</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6629549582433185</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.855783506064682</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.667911692916924</v>
+      </c>
+      <c r="P17">
+        <v>0.6298821568913278</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.678688973597389</v>
+        <v>3.926669046442044</v>
       </c>
       <c r="C18">
-        <v>0.606761834338954</v>
+        <v>1.526162783214602</v>
       </c>
       <c r="D18">
-        <v>0.06525848225148678</v>
+        <v>0.02334347985155372</v>
       </c>
       <c r="E18">
-        <v>0.03845979534369137</v>
+        <v>0.06765221089112416</v>
       </c>
       <c r="F18">
-        <v>0.7296238405789595</v>
+        <v>1.860770888742536</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0.0757529897639202</v>
+      </c>
+      <c r="I18">
+        <v>0.01506358596088742</v>
+      </c>
+      <c r="J18">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I18">
-        <v>0.3061647595747026</v>
-      </c>
-      <c r="J18">
-        <v>0.06214080679805889</v>
-      </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.7806969687448984</v>
       </c>
       <c r="L18">
-        <v>0.2689136955090419</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6467241495970342</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.84458937306664</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.8356949399877536</v>
+      </c>
+      <c r="P18">
+        <v>0.6616843707392182</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.646950115451546</v>
+        <v>3.980588933751903</v>
       </c>
       <c r="C19">
-        <v>0.6022060950641048</v>
+        <v>1.59571356807686</v>
       </c>
       <c r="D19">
-        <v>0.06497598896591938</v>
+        <v>0.02485700978264305</v>
       </c>
       <c r="E19">
-        <v>0.03855765882223983</v>
+        <v>0.104587710613151</v>
       </c>
       <c r="F19">
-        <v>0.7279938406767243</v>
+        <v>2.05343601721502</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.03178590592231245</v>
+      </c>
+      <c r="I19">
+        <v>0.01583532321137504</v>
+      </c>
+      <c r="J19">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I19">
-        <v>0.3070747914720648</v>
-      </c>
-      <c r="J19">
-        <v>0.06226488159495958</v>
-      </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.8850409312290282</v>
       </c>
       <c r="L19">
-        <v>0.267099919213706</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6412333466549569</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.840905497692802</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>1.098663792487244</v>
+      </c>
+      <c r="P19">
+        <v>0.709803633056179</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.789861929886342</v>
+        <v>4.282785797205179</v>
       </c>
       <c r="C20">
-        <v>0.6227152057962257</v>
+        <v>1.79417974978503</v>
       </c>
       <c r="D20">
-        <v>0.06625040299229568</v>
+        <v>0.03005914075083993</v>
       </c>
       <c r="E20">
-        <v>0.03812015717233441</v>
+        <v>0.2751035541151339</v>
       </c>
       <c r="F20">
-        <v>0.7354733997141736</v>
+        <v>2.461975250945812</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0.01066354712805673</v>
+      </c>
+      <c r="I20">
+        <v>0.02021761833814217</v>
+      </c>
+      <c r="J20">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I20">
-        <v>0.3030675419795408</v>
-      </c>
-      <c r="J20">
-        <v>0.0617105531649571</v>
-      </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.089709704598221</v>
       </c>
       <c r="L20">
-        <v>0.2752767279010442</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6659611884515826</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.857906292754478</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.623852337947355</v>
+      </c>
+      <c r="P20">
+        <v>0.8017636746070096</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.271661499431161</v>
+        <v>4.855585069763663</v>
       </c>
       <c r="C21">
-        <v>0.6917830966174847</v>
+        <v>2.047177385937857</v>
       </c>
       <c r="D21">
-        <v>0.07058977097920405</v>
+        <v>0.03095081873959415</v>
       </c>
       <c r="E21">
-        <v>0.03670135873685965</v>
+        <v>0.3315605296245465</v>
       </c>
       <c r="F21">
-        <v>0.7632346644693015</v>
+        <v>2.778253458015229</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0.0164371280795983</v>
+      </c>
+      <c r="I21">
+        <v>0.02919769684667095</v>
+      </c>
+      <c r="J21">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I21">
-        <v>0.2911996228369986</v>
-      </c>
-      <c r="J21">
-        <v>0.05991935610187227</v>
-      </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.209485291887702</v>
       </c>
       <c r="L21">
-        <v>0.3030201352988797</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7494015940905285</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.922745848022117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.876591910890994</v>
+      </c>
+      <c r="P21">
+        <v>0.7862087507112534</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.587987208635582</v>
+        <v>5.234730781177461</v>
       </c>
       <c r="C22">
-        <v>0.7370727978276932</v>
+        <v>2.20659868026064</v>
       </c>
       <c r="D22">
-        <v>0.07347140289054011</v>
+        <v>0.03134546044563891</v>
       </c>
       <c r="E22">
-        <v>0.03581282036136946</v>
+        <v>0.3580237677118205</v>
       </c>
       <c r="F22">
-        <v>0.7834709904458492</v>
+        <v>2.979840693529411</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0.02062369614933202</v>
+      </c>
+      <c r="I22">
+        <v>0.03561866722099527</v>
+      </c>
+      <c r="J22">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I22">
-        <v>0.2847033681547266</v>
-      </c>
-      <c r="J22">
-        <v>0.05880294204920844</v>
-      </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.285469403891781</v>
       </c>
       <c r="L22">
-        <v>0.3213722564926371</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.8042428843045499</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.971277061735066</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>2.019405057901537</v>
+      </c>
+      <c r="P22">
+        <v>0.7737494302129662</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.419011395605139</v>
+        <v>5.040668066589603</v>
       </c>
       <c r="C23">
-        <v>0.7128850770926931</v>
+        <v>2.119179327651466</v>
       </c>
       <c r="D23">
-        <v>0.07192906603303584</v>
+        <v>0.03130391787011355</v>
       </c>
       <c r="E23">
-        <v>0.03628346626276713</v>
+        <v>0.3437306522612005</v>
       </c>
       <c r="F23">
-        <v>0.7724702172400129</v>
+        <v>2.879366536364216</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0.01835644136866388</v>
+      </c>
+      <c r="I23">
+        <v>0.03192791137664042</v>
+      </c>
+      <c r="J23">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I23">
-        <v>0.2880505357051568</v>
-      </c>
-      <c r="J23">
-        <v>0.05939375622474152</v>
-      </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.249873977182759</v>
       </c>
       <c r="L23">
-        <v>0.3115559928726981</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7749421089623993</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.944785114444386</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.943944498135323</v>
+      </c>
+      <c r="P23">
+        <v>0.7831115272133005</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.782008288024372</v>
+        <v>4.297028889918124</v>
       </c>
       <c r="C24">
-        <v>0.6215884156216589</v>
+        <v>1.796758519688296</v>
       </c>
       <c r="D24">
-        <v>0.06618020861044727</v>
+        <v>0.03082277463102123</v>
       </c>
       <c r="E24">
-        <v>0.038143991761733</v>
+        <v>0.2909676127892595</v>
       </c>
       <c r="F24">
-        <v>0.7350530838502252</v>
+        <v>2.493612817610881</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0.01085886048812157</v>
+      </c>
+      <c r="I24">
+        <v>0.01994446577154285</v>
+      </c>
+      <c r="J24">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I24">
-        <v>0.3032817707321733</v>
-      </c>
-      <c r="J24">
-        <v>0.06174072885901261</v>
-      </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.109323722541646</v>
       </c>
       <c r="L24">
-        <v>0.2748267248295946</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6646020064356861</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.856944635457381</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.659108815920419</v>
+      </c>
+      <c r="P24">
+        <v>0.8153956024481914</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.099681914500479</v>
+        <v>3.503762492162593</v>
       </c>
       <c r="C25">
-        <v>0.5235612612086697</v>
+        <v>1.457909305816486</v>
       </c>
       <c r="D25">
-        <v>0.06015763759474169</v>
+        <v>0.03020195981991236</v>
       </c>
       <c r="E25">
-        <v>0.04031328676061952</v>
+        <v>0.2360594625073418</v>
       </c>
       <c r="F25">
-        <v>0.7028447984368071</v>
+        <v>2.08979482569076</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0.004831222090354026</v>
+      </c>
+      <c r="I25">
+        <v>0.01016057486958832</v>
+      </c>
+      <c r="J25">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I25">
-        <v>0.3246748380371116</v>
-      </c>
-      <c r="J25">
-        <v>0.0644981207620372</v>
-      </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.9623036846297524</v>
       </c>
       <c r="L25">
-        <v>0.2360360412325946</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5466457784821301</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.786083931397513</v>
+        <v>1.355860583795589</v>
+      </c>
+      <c r="P25">
+        <v>0.8527265011455256</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_15/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.944507489732928</v>
+        <v>2.636279977545939</v>
       </c>
       <c r="C2">
-        <v>1.209052486959024</v>
+        <v>1.291396137694505</v>
       </c>
       <c r="D2">
-        <v>0.03006627087280656</v>
+        <v>0.0239067317915822</v>
       </c>
       <c r="E2">
-        <v>0.1965729269742873</v>
+        <v>0.205040870849345</v>
       </c>
       <c r="F2">
-        <v>1.818037938387235</v>
+        <v>1.535503646002113</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.001866671460287295</v>
+        <v>0.001848412160202484</v>
       </c>
       <c r="I2">
-        <v>0.004613234396973809</v>
+        <v>0.004774090947631926</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>0.8690941238603074</v>
+        <v>0.6748799397371741</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3201286143793922</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2019296615352317</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.136904289472596</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8889696615110836</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>1.106483550669729</v>
+      </c>
+      <c r="R2">
+        <v>0.778895275434305</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.555635376812802</v>
+        <v>2.29904923052834</v>
       </c>
       <c r="C3">
-        <v>1.045859858990582</v>
+        <v>1.114971372211983</v>
       </c>
       <c r="D3">
-        <v>0.02968406366660048</v>
+        <v>0.02390795100160492</v>
       </c>
       <c r="E3">
-        <v>0.1705310893070724</v>
+        <v>0.1787724240845669</v>
       </c>
       <c r="F3">
-        <v>1.627327719936773</v>
+        <v>1.385954095718517</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0006053601609514736</v>
+        <v>0.0006508921913526144</v>
       </c>
       <c r="I3">
-        <v>0.002219121399920532</v>
+        <v>0.002616296735426182</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>0.8002531361099869</v>
+        <v>0.6319771468920194</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3133085304723764</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1765438442601877</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9882810244718314</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9104360956829751</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.9633826962264749</v>
+      </c>
+      <c r="R3">
+        <v>0.8090589800631491</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.317058154447409</v>
+        <v>2.09142124462727</v>
       </c>
       <c r="C4">
-        <v>0.9467452834121843</v>
+        <v>1.007815474322172</v>
       </c>
       <c r="D4">
-        <v>0.02941525277621082</v>
+        <v>0.02388156520006923</v>
       </c>
       <c r="E4">
-        <v>0.1547547677263381</v>
+        <v>0.162800986205351</v>
       </c>
       <c r="F4">
-        <v>1.511415195804574</v>
+        <v>1.294806069793069</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0001647469920338374</v>
+        <v>0.0002084836976599114</v>
       </c>
       <c r="I4">
-        <v>0.001236806053302786</v>
+        <v>0.001660539249489723</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>0.7583099798114006</v>
+        <v>0.6056904344503522</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3087791053999069</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1618932107413507</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.8973093375673002</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9238759381368951</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.8756787952429974</v>
+      </c>
+      <c r="R4">
+        <v>0.8279115719474284</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.217813171462581</v>
+        <v>2.004840458100716</v>
       </c>
       <c r="C5">
-        <v>0.9071004999311754</v>
+        <v>0.9649004311237661</v>
       </c>
       <c r="D5">
-        <v>0.02925407302718064</v>
+        <v>0.02384435341141966</v>
       </c>
       <c r="E5">
-        <v>0.1484016389071208</v>
+        <v>0.1563550998869232</v>
       </c>
       <c r="F5">
-        <v>1.46261558203679</v>
+        <v>1.256229896578702</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6.283574086651811E-05</v>
+        <v>9.639421203333498E-05</v>
       </c>
       <c r="I5">
-        <v>0.001008948195281523</v>
+        <v>0.001428214951872064</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>0.7400324967665952</v>
+        <v>0.5939609225891616</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3064054567275107</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.155820807829965</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.8600871568718347</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9286537863716688</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.8397765727703757</v>
+      </c>
+      <c r="R5">
+        <v>0.8351978351232781</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.198851773306671</v>
+        <v>1.988249666910917</v>
       </c>
       <c r="C6">
-        <v>0.9011554335461653</v>
+        <v>0.9583950432447352</v>
       </c>
       <c r="D6">
-        <v>0.02917431537180448</v>
+        <v>0.02381394822443017</v>
       </c>
       <c r="E6">
-        <v>0.1473873360657123</v>
+        <v>0.155323646510471</v>
       </c>
       <c r="F6">
-        <v>1.452303375522845</v>
+        <v>1.247912840568105</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5.010715871955895E-05</v>
+        <v>8.136572036532286E-05</v>
       </c>
       <c r="I6">
-        <v>0.001057681912061348</v>
+        <v>0.001490766818584177</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>0.7354718533341682</v>
+        <v>0.590765510924065</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3054682486702731</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1544226124615413</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8536615625539383</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9285274714263636</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.8335878337711833</v>
+      </c>
+      <c r="R6">
+        <v>0.8358357085786139</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.308912059049248</v>
+        <v>2.084216617797097</v>
       </c>
       <c r="C7">
-        <v>0.9479197829504358</v>
+        <v>1.00889540528425</v>
       </c>
       <c r="D7">
-        <v>0.02926953689015477</v>
+        <v>0.02381721537921333</v>
       </c>
       <c r="E7">
-        <v>0.1547727554728411</v>
+        <v>0.1628152826696088</v>
       </c>
       <c r="F7">
-        <v>1.504668032562932</v>
+        <v>1.289039853946349</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0001611521175903796</v>
+        <v>0.000204753132351243</v>
       </c>
       <c r="I7">
-        <v>0.00143331507100708</v>
+        <v>0.001899407512253148</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>0.7538766478219969</v>
+        <v>0.6021262724230354</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3073018761850648</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1606862940304836</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8961274421279128</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.921429090334108</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.8745681153847755</v>
+      </c>
+      <c r="R7">
+        <v>0.8264604271764249</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.801214225126557</v>
+        <v>2.51202777326705</v>
       </c>
       <c r="C8">
-        <v>1.154813713202827</v>
+        <v>1.232513519518648</v>
       </c>
       <c r="D8">
-        <v>0.02975189932809919</v>
+        <v>0.0238343807795296</v>
       </c>
       <c r="E8">
-        <v>0.1876791154756141</v>
+        <v>0.1960800438717101</v>
       </c>
       <c r="F8">
-        <v>1.743885551467343</v>
+        <v>1.476819475713754</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.001351713825913814</v>
+        <v>0.001365206604020619</v>
       </c>
       <c r="I8">
-        <v>0.003901686627202139</v>
+        <v>0.004226791290816934</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>0.8397039375994595</v>
+        <v>0.6555744135628174</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3160321440888865</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1913991876691838</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.084670607460581</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8930445331482204</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>1.056255935913391</v>
+      </c>
+      <c r="R8">
+        <v>0.7872919354067811</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.782739940955253</v>
+        <v>3.358809002547389</v>
       </c>
       <c r="C9">
-        <v>1.567926282185795</v>
+        <v>1.67911695415404</v>
       </c>
       <c r="D9">
-        <v>0.03067964048273453</v>
+        <v>0.02375188120170701</v>
       </c>
       <c r="E9">
-        <v>0.2541556295123613</v>
+        <v>0.2627326143062092</v>
       </c>
       <c r="F9">
-        <v>2.235586214465329</v>
+        <v>1.861474267414835</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006635943725575078</v>
+        <v>0.006218990956910697</v>
       </c>
       <c r="I9">
-        <v>0.01281017299096909</v>
+        <v>0.01171580022713048</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>1.018944611280162</v>
+        <v>0.7674112607149652</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3329106789975569</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2616278584050704</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.458867085126741</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8441660410048044</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.415756711793932</v>
+      </c>
+      <c r="R9">
+        <v>0.7159330117795726</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.492445174574641</v>
+        <v>3.969718322633184</v>
       </c>
       <c r="C10">
-        <v>1.869021487127668</v>
+        <v>2.003510008136402</v>
       </c>
       <c r="D10">
-        <v>0.03044033678748903</v>
+        <v>0.02334548405632808</v>
       </c>
       <c r="E10">
-        <v>0.283619800316572</v>
+        <v>0.2912674019457526</v>
       </c>
       <c r="F10">
-        <v>2.571822374456218</v>
+        <v>2.122529174187321</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.01241457447408889</v>
+        <v>0.01142167353311319</v>
       </c>
       <c r="I10">
-        <v>0.02252158318005826</v>
+        <v>0.01962433194263014</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>1.134204069665884</v>
+        <v>0.8366936853443221</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3386813990390465</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3129024177211974</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.688611702720209</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.7974057976533757</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.635055766733245</v>
+      </c>
+      <c r="R10">
+        <v>0.659533676728163</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.686785994216734</v>
+        <v>4.164301101371336</v>
       </c>
       <c r="C11">
-        <v>1.90244603418148</v>
+        <v>2.033951832678667</v>
       </c>
       <c r="D11">
-        <v>0.02550039898498646</v>
+        <v>0.02261160030419518</v>
       </c>
       <c r="E11">
-        <v>0.1536455821620599</v>
+        <v>0.1556846911488599</v>
       </c>
       <c r="F11">
-        <v>2.44018863463566</v>
+        <v>2.014409477970787</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.03007686114477792</v>
+        <v>0.0290512621059591</v>
       </c>
       <c r="I11">
-        <v>0.02576779047291566</v>
+        <v>0.02246164371028492</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>1.03157967864334</v>
+        <v>0.7570235990948007</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3018820923300325</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2919028607856688</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.394091911343466</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6868752207806494</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.346702771326505</v>
+      </c>
+      <c r="R11">
+        <v>0.5975620551138441</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.710295000550445</v>
+        <v>4.2084492821308</v>
       </c>
       <c r="C12">
-        <v>1.863486150153733</v>
+        <v>1.987630999954945</v>
       </c>
       <c r="D12">
-        <v>0.02320718507115749</v>
+        <v>0.02348339507312325</v>
       </c>
       <c r="E12">
-        <v>0.09397813404811739</v>
+        <v>0.0917703597018571</v>
       </c>
       <c r="F12">
-        <v>2.270669429192779</v>
+        <v>1.878440492072272</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.06745408891634241</v>
+        <v>0.06650567649290906</v>
       </c>
       <c r="I12">
-        <v>0.02606814464446305</v>
+        <v>0.02275239985245125</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.9310327272733261</v>
+        <v>0.6832534700521506</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.273121969737943</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2658210355852191</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.125349159078866</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6245128731087952</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.084911115644786</v>
+      </c>
+      <c r="R12">
+        <v>0.5734095056243285</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.592257173810367</v>
+        <v>4.129237084213969</v>
       </c>
       <c r="C13">
-        <v>1.769487420891437</v>
+        <v>1.88245095236033</v>
       </c>
       <c r="D13">
-        <v>0.02255572063248223</v>
+        <v>0.02545222260267721</v>
       </c>
       <c r="E13">
-        <v>0.08408781585475822</v>
+        <v>0.07852370734581982</v>
       </c>
       <c r="F13">
-        <v>2.053033111091736</v>
+        <v>1.705054178710625</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1215135883736878</v>
+        <v>0.1207233754537071</v>
       </c>
       <c r="I13">
-        <v>0.02429361797186491</v>
+        <v>0.02137066895774531</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.8199263654141902</v>
+        <v>0.6044232483646113</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2463261360398477</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2326910332307079</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.8621114291435745</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.590815502309594</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.8294253539916312</v>
+      </c>
+      <c r="R13">
+        <v>0.5731649693684666</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.444239908574843</v>
+        <v>4.016505140301376</v>
       </c>
       <c r="C14">
-        <v>1.68014292624963</v>
+        <v>1.783616198692528</v>
       </c>
       <c r="D14">
-        <v>0.0230312008350726</v>
+        <v>0.02746050453223603</v>
       </c>
       <c r="E14">
-        <v>0.1066527714563499</v>
+        <v>0.0992249033285475</v>
       </c>
       <c r="F14">
-        <v>1.879431507197438</v>
+        <v>1.566849403311892</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1696034822590207</v>
+        <v>0.1689465817050575</v>
       </c>
       <c r="I14">
-        <v>0.02227725588324425</v>
+        <v>0.01979794315508077</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.7376176290160288</v>
+        <v>0.5468957650194994</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2281353921674167</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.2066206396590502</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.6858848506120765</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5819646270134062</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6587657720734157</v>
+      </c>
+      <c r="R14">
+        <v>0.5849831269974537</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.375662450119023</v>
+        <v>3.960498452875129</v>
       </c>
       <c r="C15">
-        <v>1.647577062405333</v>
+        <v>1.747923370962553</v>
       </c>
       <c r="D15">
-        <v>0.02330008536464945</v>
+        <v>0.02803524865687024</v>
       </c>
       <c r="E15">
-        <v>0.1152743745657716</v>
+        <v>0.1075643624536085</v>
       </c>
       <c r="F15">
-        <v>1.824843356157913</v>
+        <v>1.523425038489393</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1816427305587354</v>
+        <v>0.1810366778712478</v>
       </c>
       <c r="I15">
-        <v>0.02144689062370464</v>
+        <v>0.01917776086500211</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>0.7137172302139589</v>
+        <v>0.5304981640537179</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2234841210926106</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1984277780704247</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.6409952027458345</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5834476788960743</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.6154201472899743</v>
+      </c>
+      <c r="R15">
+        <v>0.5910546430421846</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.091779124231493</v>
+        <v>3.711001955958238</v>
       </c>
       <c r="C16">
-        <v>1.539904098875752</v>
+        <v>1.63274213144183</v>
       </c>
       <c r="D16">
-        <v>0.02348936759423736</v>
+        <v>0.02757566797567179</v>
       </c>
       <c r="E16">
-        <v>0.1053317970788292</v>
+        <v>0.09896414508008533</v>
       </c>
       <c r="F16">
-        <v>1.725155959305908</v>
+        <v>1.445785990034295</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1670155698056561</v>
+        <v>0.166596715077489</v>
       </c>
       <c r="I16">
-        <v>0.01757363020620151</v>
+        <v>0.01606293795579106</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926776106</v>
       </c>
       <c r="K16">
-        <v>0.6866579006712641</v>
+        <v>0.5156390612885104</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2242952867485499</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1839897323322717</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.6057032771138537</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6077490476355092</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.58219870902834</v>
+      </c>
+      <c r="R16">
+        <v>0.6107318915110795</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.952566391616472</v>
+        <v>3.579497477263146</v>
       </c>
       <c r="C17">
-        <v>1.504723706222137</v>
+        <v>1.596800853806485</v>
       </c>
       <c r="D17">
-        <v>0.02323609099993362</v>
+        <v>0.02608996110544481</v>
       </c>
       <c r="E17">
-        <v>0.08081233731224025</v>
+        <v>0.07636561881780679</v>
       </c>
       <c r="F17">
-        <v>1.739754021860136</v>
+        <v>1.458965340586275</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1284255163417924</v>
+        <v>0.1280808630106094</v>
       </c>
       <c r="I17">
-        <v>0.0157363273220783</v>
+        <v>0.01456666135861351</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234339</v>
       </c>
       <c r="K17">
-        <v>0.7087407875700507</v>
+        <v>0.5343415795741748</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.234783438119905</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1863133147533844</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.667911692916924</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6298821568913278</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.6432613220151282</v>
+      </c>
+      <c r="R17">
+        <v>0.6191997480700593</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.926669046442044</v>
+        <v>3.539058319808248</v>
       </c>
       <c r="C18">
-        <v>1.526162783214602</v>
+        <v>1.623282310067282</v>
       </c>
       <c r="D18">
-        <v>0.02334347985155372</v>
+        <v>0.02412074842013823</v>
       </c>
       <c r="E18">
-        <v>0.06765221089112416</v>
+        <v>0.06603405444216137</v>
       </c>
       <c r="F18">
-        <v>1.860770888742536</v>
+        <v>1.557153933581645</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.0757529897639202</v>
+        <v>0.0754029208026239</v>
       </c>
       <c r="I18">
-        <v>0.01506358596088742</v>
+        <v>0.01390727079431642</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146320727</v>
       </c>
       <c r="K18">
-        <v>0.7806969687448984</v>
+        <v>0.588014985194846</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2565806501089085</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2043899154596645</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8356949399877536</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6616843707392182</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.8067836030235185</v>
+      </c>
+      <c r="R18">
+        <v>0.6256965238306291</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.980588933751903</v>
+        <v>3.563062982830843</v>
       </c>
       <c r="C19">
-        <v>1.59571356807686</v>
+        <v>1.702235926757282</v>
       </c>
       <c r="D19">
-        <v>0.02485700978264305</v>
+        <v>0.02290716321147013</v>
       </c>
       <c r="E19">
-        <v>0.104587710613151</v>
+        <v>0.1066373251281902</v>
       </c>
       <c r="F19">
-        <v>2.05343601721502</v>
+        <v>1.711601930641905</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.03178590592231245</v>
+        <v>0.03135156123674676</v>
       </c>
       <c r="I19">
-        <v>0.01583532321137504</v>
+        <v>0.0145420167446213</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768438788</v>
       </c>
       <c r="K19">
-        <v>0.8850409312290282</v>
+        <v>0.663549503766717</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2850337088459014</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2328671667479725</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.098663792487244</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.709803633056179</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>1.062888800660303</v>
+      </c>
+      <c r="R19">
+        <v>0.639712587346378</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.282785797205179</v>
+        <v>3.789390962349728</v>
       </c>
       <c r="C20">
-        <v>1.79417974978503</v>
+        <v>1.922330571577049</v>
       </c>
       <c r="D20">
-        <v>0.03005914075083993</v>
+        <v>0.02331069644309647</v>
       </c>
       <c r="E20">
-        <v>0.2751035541151339</v>
+        <v>0.2830160146178144</v>
       </c>
       <c r="F20">
-        <v>2.461975250945812</v>
+        <v>2.035933825876569</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.01066354712805673</v>
+        <v>0.009851269846632871</v>
       </c>
       <c r="I20">
-        <v>0.02021761833814217</v>
+        <v>0.0180463883699753</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>1.089709704598221</v>
+        <v>0.8073838071086143</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.333243520822073</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2947573561727452</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.623852337947355</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8017636746070096</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.573350012271021</v>
+      </c>
+      <c r="R20">
+        <v>0.6700660186952447</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.855585069763663</v>
+        <v>4.275876887783738</v>
       </c>
       <c r="C21">
-        <v>2.047177385937857</v>
+        <v>2.195694783969429</v>
       </c>
       <c r="D21">
-        <v>0.03095081873959415</v>
+        <v>0.0232685346710706</v>
       </c>
       <c r="E21">
-        <v>0.3315605296245465</v>
+        <v>0.3395115859283635</v>
       </c>
       <c r="F21">
-        <v>2.778253458015229</v>
+        <v>2.282317648323811</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.0164371280795983</v>
+        <v>0.01501421926534663</v>
       </c>
       <c r="I21">
-        <v>0.02919769684667095</v>
+        <v>0.025194046054418</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752089</v>
       </c>
       <c r="K21">
-        <v>1.209485291887702</v>
+        <v>0.8828884415003415</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3451652103878189</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3444807317964873</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.876591910890994</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.7862087507112534</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.815668572120785</v>
+      </c>
+      <c r="R21">
+        <v>0.6370635470413397</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.234730781177461</v>
+        <v>4.598563617378204</v>
       </c>
       <c r="C22">
-        <v>2.20659868026064</v>
+        <v>2.367697408981371</v>
       </c>
       <c r="D22">
-        <v>0.03134546044563891</v>
+        <v>0.02318189359423739</v>
       </c>
       <c r="E22">
-        <v>0.3580237677118205</v>
+        <v>0.3655538814955719</v>
       </c>
       <c r="F22">
-        <v>2.979840693529411</v>
+        <v>2.439292519237554</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02062369614933202</v>
+        <v>0.01873377368893925</v>
       </c>
       <c r="I22">
-        <v>0.03561866722099527</v>
+        <v>0.03013540445699725</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>1.285469403891781</v>
+        <v>0.9307470252666832</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3519027630252722</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3774498684550593</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.019405057901537</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.7737494302129662</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.951949623129778</v>
+      </c>
+      <c r="R22">
+        <v>0.6147813390049883</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.040668066589603</v>
+        <v>4.433679647739439</v>
       </c>
       <c r="C23">
-        <v>2.119179327651466</v>
+        <v>2.273618680214327</v>
       </c>
       <c r="D23">
-        <v>0.03130391787011355</v>
+        <v>0.02328388341886667</v>
       </c>
       <c r="E23">
-        <v>0.3437306522612005</v>
+        <v>0.3514939348448891</v>
       </c>
       <c r="F23">
-        <v>2.879366536364216</v>
+        <v>2.361557127772627</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.01835644136866388</v>
+        <v>0.01672024556904117</v>
       </c>
       <c r="I23">
-        <v>0.03192791137664042</v>
+        <v>0.02718019714020059</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787806356</v>
       </c>
       <c r="K23">
-        <v>1.249873977182759</v>
+        <v>0.9091246020839634</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3497183030273661</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3613584843391422</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.943944498135323</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.7831115272133005</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.879923372316952</v>
+      </c>
+      <c r="R23">
+        <v>0.6280436426754719</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.297028889918124</v>
+        <v>3.799378385050829</v>
       </c>
       <c r="C24">
-        <v>1.796758519688296</v>
+        <v>1.925896261199057</v>
       </c>
       <c r="D24">
-        <v>0.03082277463102123</v>
+        <v>0.02353412955197554</v>
       </c>
       <c r="E24">
-        <v>0.2909676127892595</v>
+        <v>0.2993533221346922</v>
       </c>
       <c r="F24">
-        <v>2.493612817610881</v>
+        <v>2.061757821935231</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.01085886048812157</v>
+        <v>0.01002651781848549</v>
       </c>
       <c r="I24">
-        <v>0.01994446577154285</v>
+        <v>0.01764221374811203</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>1.109323722541646</v>
+        <v>0.8221599556136496</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3388431014787159</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3002931577891914</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.659108815920419</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8153956024481914</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.607657681908492</v>
+      </c>
+      <c r="R24">
+        <v>0.6771804884406336</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.503762492162593</v>
+        <v>3.118676607899658</v>
       </c>
       <c r="C25">
-        <v>1.457909305816486</v>
+        <v>1.559896813238652</v>
       </c>
       <c r="D25">
-        <v>0.03020195981991236</v>
+        <v>0.02370279705262957</v>
       </c>
       <c r="E25">
-        <v>0.2360594625073418</v>
+        <v>0.2446592108105108</v>
       </c>
       <c r="F25">
-        <v>2.08979482569076</v>
+        <v>1.74688675120187</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.004831222090354026</v>
+        <v>0.004579558851633192</v>
       </c>
       <c r="I25">
-        <v>0.01016057486958832</v>
+        <v>0.009676756659082741</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.9623036846297524</v>
+        <v>0.7308647602276608</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3262967078318013</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2394348052829756</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.355860583795589</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8527265011455256</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>1.316983812432028</v>
+      </c>
+      <c r="R25">
+        <v>0.7324600489128379</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
